--- a/DOCUMENTATION/DocumentDePlanification.xlsx
+++ b/DOCUMENTATION/DocumentDePlanification.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxxr\Documents\GitHub\C61-MaximeRabbat-AbigailFournier\DOCUMENTATION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fourn\OneDrive\Documents\GitHub\C61-MaximeRabbat-AbigailFournier\DOCUMENTATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED09608D-F5C0-4962-9CC6-5403FC140C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D51799-1E09-47B7-AB95-8F3A21895808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planification" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="99">
   <si>
     <t>Planification globale</t>
   </si>
@@ -298,9 +298,6 @@
     <t>Compréhension de base de son fonctionnement</t>
   </si>
   <si>
-    <t>c'étit compliqué à placer</t>
-  </si>
-  <si>
     <t>non commencé</t>
   </si>
   <si>
@@ -317,6 +314,18 @@
   </si>
   <si>
     <t>Manqué de temp et moins prioritaire</t>
+  </si>
+  <si>
+    <t>c'était compliqué à placer</t>
+  </si>
+  <si>
+    <t>Beaucoup de découverte de ce qui est possible ou pas</t>
+  </si>
+  <si>
+    <t>Beaucoup d'erreurs et d'échec d'essai d'effets</t>
+  </si>
+  <si>
+    <t>Petit survol</t>
   </si>
 </sst>
 </file>
@@ -520,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -559,6 +568,7 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -4214,7 +4224,7 @@
   <dimension ref="B1:L1005"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4347,7 +4357,7 @@
         <v>100</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J6" s="34">
         <v>0</v>
@@ -4409,7 +4419,7 @@
         <v>50</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J8">
         <v>4</v>
@@ -4418,7 +4428,7 @@
         <v>90</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -4454,7 +4464,7 @@
     </row>
     <row r="10" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>66</v>
@@ -4566,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J13" s="34">
         <v>2</v>
@@ -4575,7 +4585,7 @@
         <v>100</v>
       </c>
       <c r="L13" s="27" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -4621,6 +4631,9 @@
       <c r="D15" s="33">
         <v>0</v>
       </c>
+      <c r="E15" s="33">
+        <v>0</v>
+      </c>
       <c r="F15" s="32"/>
       <c r="G15" s="33">
         <v>0</v>
@@ -4636,20 +4649,30 @@
         <v>66</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" s="17"/>
+        <v>25</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>98</v>
+      </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I16" s="17"/>
-      <c r="L16" s="17"/>
+      <c r="J16" s="35">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <v>75</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="17" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
@@ -4672,7 +4695,15 @@
         <v>0</v>
       </c>
       <c r="I17" s="17"/>
-      <c r="L17" s="17"/>
+      <c r="J17" s="35">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>100</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="18" spans="2:12" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B18" s="28" t="s">
@@ -4731,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -4762,7 +4793,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -4793,7 +4824,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -4824,7 +4855,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -4855,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">

--- a/DOCUMENTATION/DocumentDePlanification.xlsx
+++ b/DOCUMENTATION/DocumentDePlanification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fourn\OneDrive\Documents\GitHub\C61-MaximeRabbat-AbigailFournier\DOCUMENTATION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxxr\Documents\GitHub\C61-MaximeRabbat-AbigailFournier\DOCUMENTATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D51799-1E09-47B7-AB95-8F3A21895808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0F2748-D441-492F-927C-3632F77E4335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planification" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="114">
   <si>
     <t>Planification globale</t>
   </si>
@@ -326,13 +326,61 @@
   </si>
   <si>
     <t>Petit survol</t>
+  </si>
+  <si>
+    <t>SPRINT 2</t>
+  </si>
+  <si>
+    <t>Scene est créé</t>
+  </si>
+  <si>
+    <t>model de planet est présent et on peut parcourir dessu</t>
+  </si>
+  <si>
+    <t>Experimentation avec le globe</t>
+  </si>
+  <si>
+    <t>Manqué de temp</t>
+  </si>
+  <si>
+    <t>Pofination minimal du Avatar du joueur (3d)</t>
+  </si>
+  <si>
+    <t>il manque l'animation de saut</t>
+  </si>
+  <si>
+    <t>l'option de volume ne bouge pas</t>
+  </si>
+  <si>
+    <t>Experimentation avec les Button et Text</t>
+  </si>
+  <si>
+    <t>Complété avant en sprint 2 par hazard</t>
+  </si>
+  <si>
+    <t>Manque son Model 3d et animation</t>
+  </si>
+  <si>
+    <t>transition de scene marche</t>
+  </si>
+  <si>
+    <t>Amélioration du mouvement du Joueur</t>
+  </si>
+  <si>
+    <t>Capsule Collider à la place d'un Box Collider</t>
+  </si>
+  <si>
+    <t>Fait en sprint 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;$&quot;_);[Red]\(#,##0.00\ &quot;$&quot;\)"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,8 +418,23 @@
       <color theme="0"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -444,8 +507,56 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -525,11 +636,100 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -569,13 +769,48 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -787,11 +1022,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1029"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B21:B22"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.109375" customWidth="1"/>
     <col min="2" max="2" width="47.44140625" customWidth="1"/>
@@ -1082,7 +1317,7 @@
         <v>25</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -2736,7 +2971,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.88671875" customWidth="1"/>
     <col min="2" max="2" width="51.6640625" customWidth="1"/>
@@ -4223,11 +4458,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:L1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="D14" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.33203125" customWidth="1"/>
     <col min="2" max="2" width="42.21875" customWidth="1"/>
@@ -4664,7 +4899,7 @@
         <v>25</v>
       </c>
       <c r="I16" s="17"/>
-      <c r="J16" s="35">
+      <c r="J16" s="34">
         <v>4</v>
       </c>
       <c r="K16">
@@ -4695,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="17"/>
-      <c r="J17" s="35">
+      <c r="J17" s="34">
         <v>3</v>
       </c>
       <c r="K17">
@@ -6017,33 +6252,74 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:L1000"/>
+  <dimension ref="A1:AD1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="95" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.88671875" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" customWidth="1"/>
+    <col min="2" max="2" width="50.77734375" customWidth="1"/>
     <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" customWidth="1"/>
     <col min="5" max="5" width="21.33203125" customWidth="1"/>
     <col min="6" max="6" width="19.109375" customWidth="1"/>
     <col min="7" max="7" width="9.5546875" customWidth="1"/>
     <col min="8" max="8" width="16.88671875" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="33.88671875" customWidth="1"/>
     <col min="10" max="10" width="9.88671875" customWidth="1"/>
     <col min="11" max="11" width="16.33203125" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" customWidth="1"/>
+    <col min="12" max="12" width="60.21875" customWidth="1"/>
     <col min="13" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="46.2" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:30" ht="46.2" x14ac:dyDescent="0.85">
       <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" ht="21" x14ac:dyDescent="0.4">
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+    </row>
+    <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+    </row>
+    <row r="3" spans="1:30" ht="21" x14ac:dyDescent="0.4">
+      <c r="A3" s="51"/>
       <c r="B3" s="24"/>
       <c r="C3" s="18"/>
       <c r="D3" s="18" t="s">
@@ -6061,8 +6337,27 @@
       </c>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
-    </row>
-    <row r="4" spans="2:12" ht="21" x14ac:dyDescent="0.4">
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="53"/>
+    </row>
+    <row r="4" spans="1:30" ht="21" x14ac:dyDescent="0.4">
+      <c r="A4" s="51"/>
       <c r="B4" s="24" t="s">
         <v>2</v>
       </c>
@@ -6096,289 +6391,2049 @@
       <c r="L4" s="19" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B5" s="23"/>
-      <c r="C5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="L5" s="17"/>
-    </row>
-    <row r="6" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B6" s="23"/>
-      <c r="C6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="L6" s="17"/>
-    </row>
-    <row r="7" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B7" s="23"/>
-      <c r="C7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="L7" s="17"/>
-    </row>
-    <row r="8" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B8" s="23"/>
-      <c r="C8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="L8" s="17"/>
-    </row>
-    <row r="9" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B9" s="23"/>
-      <c r="C9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="L9" s="17"/>
-    </row>
-    <row r="10" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B10" s="23"/>
-      <c r="C10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="L10" s="17"/>
-    </row>
-    <row r="11" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B11" s="23"/>
-      <c r="C11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="L11" s="17"/>
-    </row>
-    <row r="12" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B12" s="23"/>
-      <c r="C12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="L12" s="17"/>
-    </row>
-    <row r="13" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B13" s="23"/>
-      <c r="C13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="L13" s="17"/>
-    </row>
-    <row r="14" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B14" s="23"/>
-      <c r="C14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="L14" s="17"/>
-    </row>
-    <row r="15" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B15" s="23"/>
-      <c r="C15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="L15" s="17"/>
-    </row>
-    <row r="16" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B16" s="23"/>
-      <c r="C16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="L16" s="17"/>
-    </row>
-    <row r="17" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B17" s="23"/>
-      <c r="C17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="L17" s="17"/>
-    </row>
-    <row r="18" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B18" s="23"/>
-      <c r="C18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="L18" s="17"/>
-    </row>
-    <row r="19" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B19" s="23"/>
-      <c r="C19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="L19" s="17"/>
-    </row>
-    <row r="20" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B20" s="23"/>
-      <c r="C20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="L20" s="17"/>
-    </row>
-    <row r="21" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="23"/>
-      <c r="C21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="L21" s="17"/>
-    </row>
-    <row r="22" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="23"/>
-      <c r="C22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="L22" s="17"/>
-    </row>
-    <row r="23" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="23"/>
-      <c r="C23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="L23" s="17"/>
-    </row>
-    <row r="24" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="53"/>
+      <c r="AD4" s="53"/>
+    </row>
+    <row r="5" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="51"/>
+      <c r="B5" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="40"/>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="40"/>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="53"/>
+      <c r="AB5" s="53"/>
+      <c r="AC5" s="53"/>
+      <c r="AD5" s="53"/>
+    </row>
+    <row r="6" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="51"/>
+      <c r="B6" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="40"/>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>40</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>100</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="53"/>
+      <c r="AB6" s="53"/>
+      <c r="AC6" s="53"/>
+      <c r="AD6" s="53"/>
+    </row>
+    <row r="7" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="51"/>
+      <c r="B7" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="40"/>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="40"/>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="53"/>
+      <c r="AB7" s="53"/>
+      <c r="AC7" s="53"/>
+      <c r="AD7" s="53"/>
+    </row>
+    <row r="8" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="51"/>
+      <c r="B8" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="40"/>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="40"/>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="53"/>
+      <c r="AD8" s="53"/>
+    </row>
+    <row r="9" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="51"/>
+      <c r="B9" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="40"/>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="40"/>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>70</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="53"/>
+      <c r="AD9" s="53"/>
+    </row>
+    <row r="10" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="51"/>
+      <c r="B10" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="40"/>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="40"/>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="53"/>
+      <c r="AB10" s="53"/>
+      <c r="AC10" s="53"/>
+      <c r="AD10" s="53"/>
+    </row>
+    <row r="11" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="51"/>
+      <c r="B11" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="40"/>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="40"/>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="53"/>
+      <c r="W11" s="53"/>
+      <c r="X11" s="53"/>
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="53"/>
+      <c r="AA11" s="53"/>
+      <c r="AB11" s="53"/>
+      <c r="AC11" s="53"/>
+      <c r="AD11" s="53"/>
+    </row>
+    <row r="12" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="51"/>
+      <c r="B12" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="40"/>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="40"/>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="53"/>
+      <c r="AB12" s="53"/>
+      <c r="AC12" s="53"/>
+      <c r="AD12" s="53"/>
+    </row>
+    <row r="13" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="51"/>
+      <c r="B13" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="40"/>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="40"/>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="53"/>
+      <c r="AC13" s="53"/>
+      <c r="AD13" s="53"/>
+    </row>
+    <row r="14" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="51"/>
+      <c r="B14" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="40"/>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="40"/>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="53"/>
+      <c r="AB14" s="53"/>
+      <c r="AC14" s="53"/>
+      <c r="AD14" s="53"/>
+    </row>
+    <row r="15" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="51"/>
+      <c r="B15" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>100</v>
+      </c>
+      <c r="I15" s="40"/>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>100</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="53"/>
+      <c r="AA15" s="53"/>
+      <c r="AB15" s="53"/>
+      <c r="AC15" s="53"/>
+      <c r="AD15" s="53"/>
+    </row>
+    <row r="16" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="51"/>
+      <c r="B16" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="41"/>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>20</v>
+      </c>
+      <c r="I16" s="41"/>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>100</v>
+      </c>
+      <c r="L16" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="53"/>
+      <c r="Z16" s="53"/>
+      <c r="AA16" s="53"/>
+      <c r="AB16" s="53"/>
+      <c r="AC16" s="53"/>
+      <c r="AD16" s="53"/>
+    </row>
+    <row r="17" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="51"/>
+      <c r="B17" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="40"/>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="40"/>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>80</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="53"/>
+      <c r="Y17" s="53"/>
+      <c r="Z17" s="53"/>
+      <c r="AA17" s="53"/>
+      <c r="AB17" s="53"/>
+      <c r="AC17" s="53"/>
+      <c r="AD17" s="53"/>
+    </row>
+    <row r="18" spans="1:30" s="50" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="52"/>
+      <c r="B18" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="54"/>
+      <c r="W18" s="54"/>
+      <c r="X18" s="54"/>
+      <c r="Y18" s="54"/>
+      <c r="Z18" s="54"/>
+      <c r="AA18" s="54"/>
+      <c r="AB18" s="54"/>
+      <c r="AC18" s="54"/>
+      <c r="AD18" s="54"/>
+    </row>
+    <row r="19" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B19" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="40"/>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="40"/>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>90</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="53"/>
+      <c r="U19" s="53"/>
+      <c r="V19" s="53"/>
+      <c r="W19" s="53"/>
+      <c r="X19" s="53"/>
+      <c r="Y19" s="53"/>
+      <c r="Z19" s="53"/>
+      <c r="AA19" s="53"/>
+      <c r="AB19" s="53"/>
+      <c r="AC19" s="53"/>
+      <c r="AD19" s="53"/>
+    </row>
+    <row r="20" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B20" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" s="40"/>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>50</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>100</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="53"/>
+      <c r="X20" s="53"/>
+      <c r="Y20" s="53"/>
+      <c r="Z20" s="53"/>
+      <c r="AA20" s="53"/>
+      <c r="AB20" s="53"/>
+      <c r="AC20" s="53"/>
+      <c r="AD20" s="53"/>
+    </row>
+    <row r="21" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B21" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" s="40"/>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" s="40"/>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>100</v>
+      </c>
+      <c r="L21" s="42"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="53"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="53"/>
+      <c r="Y21" s="53"/>
+      <c r="Z21" s="53"/>
+      <c r="AA21" s="53"/>
+      <c r="AB21" s="53"/>
+      <c r="AC21" s="53"/>
+      <c r="AD21" s="53"/>
+    </row>
+    <row r="22" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" s="40"/>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" s="40"/>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="53"/>
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="53"/>
+      <c r="AB22" s="53"/>
+      <c r="AC22" s="53"/>
+      <c r="AD22" s="53"/>
+    </row>
+    <row r="23" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="40"/>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" s="40"/>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="53"/>
+      <c r="W23" s="53"/>
+      <c r="X23" s="53"/>
+      <c r="Y23" s="53"/>
+      <c r="Z23" s="53"/>
+      <c r="AA23" s="53"/>
+      <c r="AB23" s="53"/>
+      <c r="AC23" s="53"/>
+      <c r="AD23" s="53"/>
+    </row>
+    <row r="24" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="23"/>
       <c r="C24" s="17"/>
       <c r="F24" s="17"/>
       <c r="I24" s="17"/>
       <c r="L24" s="17"/>
-    </row>
-    <row r="25" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="53"/>
+      <c r="X24" s="53"/>
+      <c r="Y24" s="53"/>
+      <c r="Z24" s="53"/>
+      <c r="AA24" s="53"/>
+      <c r="AB24" s="53"/>
+      <c r="AC24" s="53"/>
+      <c r="AD24" s="53"/>
+    </row>
+    <row r="25" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="23"/>
       <c r="C25" s="17"/>
       <c r="F25" s="17"/>
       <c r="I25" s="17"/>
       <c r="L25" s="17"/>
-    </row>
-    <row r="26" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="53"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="53"/>
+      <c r="W25" s="53"/>
+      <c r="X25" s="53"/>
+      <c r="Y25" s="53"/>
+      <c r="Z25" s="53"/>
+      <c r="AA25" s="53"/>
+      <c r="AB25" s="53"/>
+      <c r="AC25" s="53"/>
+      <c r="AD25" s="53"/>
+    </row>
+    <row r="26" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="23"/>
       <c r="C26" s="17"/>
       <c r="F26" s="17"/>
       <c r="I26" s="17"/>
       <c r="L26" s="17"/>
-    </row>
-    <row r="27" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="53"/>
+      <c r="W26" s="53"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="53"/>
+      <c r="Z26" s="53"/>
+      <c r="AA26" s="53"/>
+      <c r="AB26" s="53"/>
+      <c r="AC26" s="53"/>
+      <c r="AD26" s="53"/>
+    </row>
+    <row r="27" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23"/>
       <c r="C27" s="17"/>
       <c r="F27" s="17"/>
       <c r="I27" s="17"/>
       <c r="L27" s="17"/>
-    </row>
-    <row r="28" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="53"/>
+      <c r="AB27" s="53"/>
+      <c r="AC27" s="53"/>
+      <c r="AD27" s="53"/>
+    </row>
+    <row r="28" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23"/>
       <c r="C28" s="17"/>
       <c r="F28" s="17"/>
       <c r="I28" s="17"/>
       <c r="L28" s="17"/>
-    </row>
-    <row r="29" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="53"/>
+      <c r="U28" s="53"/>
+      <c r="V28" s="53"/>
+      <c r="W28" s="53"/>
+      <c r="X28" s="53"/>
+      <c r="Y28" s="53"/>
+      <c r="Z28" s="53"/>
+      <c r="AA28" s="53"/>
+      <c r="AB28" s="53"/>
+      <c r="AC28" s="53"/>
+      <c r="AD28" s="53"/>
+    </row>
+    <row r="29" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23"/>
       <c r="C29" s="17"/>
       <c r="F29" s="17"/>
       <c r="I29" s="17"/>
       <c r="L29" s="17"/>
-    </row>
-    <row r="30" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="53"/>
+      <c r="T29" s="53"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="53"/>
+      <c r="W29" s="53"/>
+      <c r="X29" s="53"/>
+      <c r="Y29" s="53"/>
+      <c r="Z29" s="53"/>
+      <c r="AA29" s="53"/>
+      <c r="AB29" s="53"/>
+      <c r="AC29" s="53"/>
+      <c r="AD29" s="53"/>
+    </row>
+    <row r="30" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23"/>
       <c r="C30" s="17"/>
       <c r="F30" s="17"/>
       <c r="I30" s="17"/>
       <c r="L30" s="17"/>
-    </row>
-    <row r="31" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="53"/>
+      <c r="R30" s="53"/>
+      <c r="S30" s="53"/>
+      <c r="T30" s="53"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="53"/>
+      <c r="W30" s="53"/>
+      <c r="X30" s="53"/>
+      <c r="Y30" s="53"/>
+      <c r="Z30" s="53"/>
+      <c r="AA30" s="53"/>
+      <c r="AB30" s="53"/>
+      <c r="AC30" s="53"/>
+      <c r="AD30" s="53"/>
+    </row>
+    <row r="31" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="23"/>
       <c r="C31" s="17"/>
       <c r="F31" s="17"/>
       <c r="I31" s="17"/>
       <c r="L31" s="17"/>
-    </row>
-    <row r="32" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="53"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="53"/>
+      <c r="Z31" s="53"/>
+      <c r="AA31" s="53"/>
+      <c r="AB31" s="53"/>
+      <c r="AC31" s="53"/>
+      <c r="AD31" s="53"/>
+    </row>
+    <row r="32" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="23"/>
       <c r="C32" s="17"/>
       <c r="F32" s="17"/>
       <c r="I32" s="17"/>
       <c r="L32" s="17"/>
-    </row>
-    <row r="33" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="53"/>
+      <c r="R32" s="53"/>
+      <c r="S32" s="53"/>
+      <c r="T32" s="53"/>
+      <c r="U32" s="53"/>
+      <c r="V32" s="53"/>
+      <c r="W32" s="53"/>
+      <c r="X32" s="53"/>
+      <c r="Y32" s="53"/>
+      <c r="Z32" s="53"/>
+      <c r="AA32" s="53"/>
+      <c r="AB32" s="53"/>
+      <c r="AC32" s="53"/>
+      <c r="AD32" s="53"/>
+    </row>
+    <row r="33" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="23"/>
       <c r="C33" s="17"/>
       <c r="F33" s="17"/>
       <c r="I33" s="17"/>
       <c r="L33" s="17"/>
-    </row>
-    <row r="34" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="53"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="53"/>
+      <c r="T33" s="53"/>
+      <c r="U33" s="53"/>
+      <c r="V33" s="53"/>
+      <c r="W33" s="53"/>
+      <c r="X33" s="53"/>
+      <c r="Y33" s="53"/>
+      <c r="Z33" s="53"/>
+      <c r="AA33" s="53"/>
+      <c r="AB33" s="53"/>
+      <c r="AC33" s="53"/>
+      <c r="AD33" s="53"/>
+    </row>
+    <row r="34" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="23"/>
       <c r="C34" s="17"/>
       <c r="F34" s="17"/>
       <c r="I34" s="17"/>
       <c r="L34" s="17"/>
-    </row>
-    <row r="35" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M34" s="53"/>
+      <c r="N34" s="53"/>
+      <c r="O34" s="53"/>
+      <c r="P34" s="53"/>
+      <c r="Q34" s="53"/>
+      <c r="R34" s="53"/>
+      <c r="S34" s="53"/>
+      <c r="T34" s="53"/>
+      <c r="U34" s="53"/>
+      <c r="V34" s="53"/>
+      <c r="W34" s="53"/>
+      <c r="X34" s="53"/>
+      <c r="Y34" s="53"/>
+      <c r="Z34" s="53"/>
+      <c r="AA34" s="53"/>
+      <c r="AB34" s="53"/>
+      <c r="AC34" s="53"/>
+      <c r="AD34" s="53"/>
+    </row>
+    <row r="35" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="23"/>
       <c r="C35" s="17"/>
       <c r="F35" s="17"/>
       <c r="I35" s="17"/>
       <c r="L35" s="17"/>
-    </row>
-    <row r="36" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M35" s="53"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="53"/>
+      <c r="Q35" s="53"/>
+      <c r="R35" s="53"/>
+      <c r="S35" s="53"/>
+      <c r="T35" s="53"/>
+      <c r="U35" s="53"/>
+      <c r="V35" s="53"/>
+      <c r="W35" s="53"/>
+      <c r="X35" s="53"/>
+      <c r="Y35" s="53"/>
+      <c r="Z35" s="53"/>
+      <c r="AA35" s="53"/>
+      <c r="AB35" s="53"/>
+      <c r="AC35" s="53"/>
+      <c r="AD35" s="53"/>
+    </row>
+    <row r="36" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="23"/>
       <c r="C36" s="17"/>
       <c r="F36" s="17"/>
       <c r="I36" s="17"/>
       <c r="L36" s="17"/>
-    </row>
-    <row r="37" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M36" s="53"/>
+      <c r="N36" s="53"/>
+      <c r="O36" s="53"/>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="53"/>
+      <c r="S36" s="53"/>
+      <c r="T36" s="53"/>
+      <c r="U36" s="53"/>
+      <c r="V36" s="53"/>
+      <c r="W36" s="53"/>
+      <c r="X36" s="53"/>
+      <c r="Y36" s="53"/>
+      <c r="Z36" s="53"/>
+      <c r="AA36" s="53"/>
+      <c r="AB36" s="53"/>
+      <c r="AC36" s="53"/>
+      <c r="AD36" s="53"/>
+    </row>
+    <row r="37" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="23"/>
       <c r="C37" s="17"/>
       <c r="F37" s="17"/>
       <c r="I37" s="17"/>
       <c r="L37" s="17"/>
-    </row>
-    <row r="38" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M37" s="53"/>
+      <c r="N37" s="53"/>
+      <c r="O37" s="53"/>
+      <c r="P37" s="53"/>
+      <c r="Q37" s="53"/>
+      <c r="R37" s="53"/>
+      <c r="S37" s="53"/>
+      <c r="T37" s="53"/>
+      <c r="U37" s="53"/>
+      <c r="V37" s="53"/>
+      <c r="W37" s="53"/>
+      <c r="X37" s="53"/>
+      <c r="Y37" s="53"/>
+      <c r="Z37" s="53"/>
+      <c r="AA37" s="53"/>
+      <c r="AB37" s="53"/>
+      <c r="AC37" s="53"/>
+      <c r="AD37" s="53"/>
+    </row>
+    <row r="38" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="23"/>
       <c r="C38" s="17"/>
       <c r="F38" s="17"/>
       <c r="I38" s="17"/>
       <c r="L38" s="17"/>
-    </row>
-    <row r="39" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M38" s="53"/>
+      <c r="N38" s="53"/>
+      <c r="O38" s="53"/>
+      <c r="P38" s="53"/>
+      <c r="Q38" s="53"/>
+      <c r="R38" s="53"/>
+      <c r="S38" s="53"/>
+      <c r="T38" s="53"/>
+      <c r="U38" s="53"/>
+      <c r="V38" s="53"/>
+      <c r="W38" s="53"/>
+      <c r="X38" s="53"/>
+      <c r="Y38" s="53"/>
+      <c r="Z38" s="53"/>
+      <c r="AA38" s="53"/>
+      <c r="AB38" s="53"/>
+      <c r="AC38" s="53"/>
+      <c r="AD38" s="53"/>
+    </row>
+    <row r="39" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="23"/>
       <c r="C39" s="17"/>
       <c r="F39" s="17"/>
       <c r="I39" s="17"/>
       <c r="L39" s="17"/>
-    </row>
-    <row r="40" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M39" s="53"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="53"/>
+      <c r="P39" s="53"/>
+      <c r="Q39" s="53"/>
+      <c r="R39" s="53"/>
+      <c r="S39" s="53"/>
+      <c r="T39" s="53"/>
+      <c r="U39" s="53"/>
+      <c r="V39" s="53"/>
+      <c r="W39" s="53"/>
+      <c r="X39" s="53"/>
+      <c r="Y39" s="53"/>
+      <c r="Z39" s="53"/>
+      <c r="AA39" s="53"/>
+      <c r="AB39" s="53"/>
+      <c r="AC39" s="53"/>
+      <c r="AD39" s="53"/>
+    </row>
+    <row r="40" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="23"/>
       <c r="C40" s="17"/>
       <c r="F40" s="17"/>
       <c r="I40" s="17"/>
       <c r="L40" s="17"/>
-    </row>
-    <row r="41" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M40" s="53"/>
+      <c r="N40" s="53"/>
+      <c r="O40" s="53"/>
+      <c r="P40" s="53"/>
+      <c r="Q40" s="53"/>
+      <c r="R40" s="53"/>
+      <c r="S40" s="53"/>
+      <c r="T40" s="53"/>
+      <c r="U40" s="53"/>
+      <c r="V40" s="53"/>
+      <c r="W40" s="53"/>
+      <c r="X40" s="53"/>
+      <c r="Y40" s="53"/>
+      <c r="Z40" s="53"/>
+      <c r="AA40" s="53"/>
+      <c r="AB40" s="53"/>
+      <c r="AC40" s="53"/>
+      <c r="AD40" s="53"/>
+    </row>
+    <row r="41" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="23"/>
       <c r="C41" s="17"/>
       <c r="F41" s="17"/>
       <c r="I41" s="17"/>
       <c r="L41" s="17"/>
-    </row>
-    <row r="42" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="53"/>
+      <c r="P41" s="53"/>
+      <c r="Q41" s="53"/>
+      <c r="R41" s="53"/>
+      <c r="S41" s="53"/>
+      <c r="T41" s="53"/>
+      <c r="U41" s="53"/>
+      <c r="V41" s="53"/>
+      <c r="W41" s="53"/>
+      <c r="X41" s="53"/>
+      <c r="Y41" s="53"/>
+      <c r="Z41" s="53"/>
+      <c r="AA41" s="53"/>
+      <c r="AB41" s="53"/>
+      <c r="AC41" s="53"/>
+      <c r="AD41" s="53"/>
+    </row>
+    <row r="42" spans="2:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="23"/>
+      <c r="C42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="53"/>
+      <c r="N42" s="53"/>
+      <c r="O42" s="53"/>
+      <c r="P42" s="53"/>
+      <c r="Q42" s="53"/>
+      <c r="R42" s="53"/>
+      <c r="S42" s="53"/>
+      <c r="T42" s="53"/>
+      <c r="U42" s="53"/>
+      <c r="V42" s="53"/>
+      <c r="W42" s="53"/>
+      <c r="X42" s="53"/>
+      <c r="Y42" s="53"/>
+      <c r="Z42" s="53"/>
+      <c r="AA42" s="53"/>
+      <c r="AB42" s="53"/>
+      <c r="AC42" s="53"/>
+      <c r="AD42" s="53"/>
+    </row>
+    <row r="43" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="55"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="56"/>
+      <c r="J43" s="56"/>
+      <c r="K43" s="56"/>
+      <c r="L43" s="57"/>
+      <c r="M43" s="53"/>
+      <c r="N43" s="53"/>
+      <c r="O43" s="53"/>
+      <c r="P43" s="53"/>
+      <c r="Q43" s="53"/>
+      <c r="R43" s="53"/>
+      <c r="S43" s="53"/>
+      <c r="T43" s="53"/>
+      <c r="U43" s="53"/>
+      <c r="V43" s="53"/>
+      <c r="W43" s="53"/>
+      <c r="X43" s="53"/>
+      <c r="Y43" s="53"/>
+      <c r="Z43" s="53"/>
+      <c r="AA43" s="53"/>
+      <c r="AB43" s="53"/>
+      <c r="AC43" s="53"/>
+      <c r="AD43" s="53"/>
+    </row>
+    <row r="44" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="58"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="60"/>
+      <c r="M44" s="53"/>
+      <c r="N44" s="53"/>
+      <c r="O44" s="53"/>
+      <c r="P44" s="53"/>
+      <c r="Q44" s="53"/>
+      <c r="R44" s="53"/>
+      <c r="S44" s="53"/>
+      <c r="T44" s="53"/>
+      <c r="U44" s="53"/>
+      <c r="V44" s="53"/>
+      <c r="W44" s="53"/>
+      <c r="X44" s="53"/>
+      <c r="Y44" s="53"/>
+      <c r="Z44" s="53"/>
+      <c r="AA44" s="53"/>
+      <c r="AB44" s="53"/>
+      <c r="AC44" s="53"/>
+      <c r="AD44" s="53"/>
+    </row>
+    <row r="45" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="58"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="59"/>
+      <c r="K45" s="59"/>
+      <c r="L45" s="60"/>
+      <c r="M45" s="53"/>
+      <c r="N45" s="53"/>
+      <c r="O45" s="53"/>
+      <c r="P45" s="53"/>
+      <c r="Q45" s="53"/>
+      <c r="R45" s="53"/>
+      <c r="S45" s="53"/>
+      <c r="T45" s="53"/>
+      <c r="U45" s="53"/>
+      <c r="V45" s="53"/>
+      <c r="W45" s="53"/>
+      <c r="X45" s="53"/>
+      <c r="Y45" s="53"/>
+      <c r="Z45" s="53"/>
+      <c r="AA45" s="53"/>
+      <c r="AB45" s="53"/>
+      <c r="AC45" s="53"/>
+      <c r="AD45" s="53"/>
+    </row>
+    <row r="46" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="58"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="59"/>
+      <c r="K46" s="59"/>
+      <c r="L46" s="60"/>
+      <c r="M46" s="53"/>
+      <c r="N46" s="53"/>
+      <c r="O46" s="53"/>
+      <c r="P46" s="53"/>
+      <c r="Q46" s="53"/>
+      <c r="R46" s="53"/>
+      <c r="S46" s="53"/>
+      <c r="T46" s="53"/>
+      <c r="U46" s="53"/>
+      <c r="V46" s="53"/>
+      <c r="W46" s="53"/>
+      <c r="X46" s="53"/>
+      <c r="Y46" s="53"/>
+      <c r="Z46" s="53"/>
+      <c r="AA46" s="53"/>
+      <c r="AB46" s="53"/>
+      <c r="AC46" s="53"/>
+      <c r="AD46" s="53"/>
+    </row>
+    <row r="47" spans="2:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="61"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="62"/>
+      <c r="J47" s="62"/>
+      <c r="K47" s="62"/>
+      <c r="L47" s="63"/>
+      <c r="M47" s="53"/>
+      <c r="N47" s="53"/>
+      <c r="O47" s="53"/>
+      <c r="P47" s="53"/>
+      <c r="Q47" s="53"/>
+      <c r="R47" s="53"/>
+      <c r="S47" s="53"/>
+      <c r="T47" s="53"/>
+      <c r="U47" s="53"/>
+      <c r="V47" s="53"/>
+      <c r="W47" s="53"/>
+      <c r="X47" s="53"/>
+      <c r="Y47" s="53"/>
+      <c r="Z47" s="53"/>
+      <c r="AA47" s="53"/>
+      <c r="AB47" s="53"/>
+      <c r="AC47" s="53"/>
+      <c r="AD47" s="53"/>
+    </row>
+    <row r="48" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="53"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="53"/>
+      <c r="M48" s="53"/>
+      <c r="N48" s="53"/>
+      <c r="O48" s="53"/>
+      <c r="P48" s="53"/>
+      <c r="Q48" s="53"/>
+      <c r="R48" s="53"/>
+      <c r="S48" s="53"/>
+      <c r="T48" s="53"/>
+      <c r="U48" s="53"/>
+      <c r="V48" s="53"/>
+      <c r="W48" s="53"/>
+      <c r="X48" s="53"/>
+      <c r="Y48" s="53"/>
+      <c r="Z48" s="53"/>
+      <c r="AA48" s="53"/>
+      <c r="AB48" s="53"/>
+      <c r="AC48" s="53"/>
+      <c r="AD48" s="53"/>
+    </row>
+    <row r="49" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="53"/>
+      <c r="M49" s="53"/>
+      <c r="N49" s="53"/>
+      <c r="O49" s="53"/>
+      <c r="P49" s="53"/>
+      <c r="Q49" s="53"/>
+      <c r="R49" s="53"/>
+      <c r="S49" s="53"/>
+      <c r="T49" s="53"/>
+      <c r="U49" s="53"/>
+      <c r="V49" s="53"/>
+      <c r="W49" s="53"/>
+      <c r="X49" s="53"/>
+      <c r="Y49" s="53"/>
+      <c r="Z49" s="53"/>
+      <c r="AA49" s="53"/>
+      <c r="AB49" s="53"/>
+      <c r="AC49" s="53"/>
+      <c r="AD49" s="53"/>
+    </row>
+    <row r="50" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="53"/>
+      <c r="L50" s="53"/>
+      <c r="M50" s="53"/>
+      <c r="N50" s="53"/>
+      <c r="O50" s="53"/>
+      <c r="P50" s="53"/>
+      <c r="Q50" s="53"/>
+      <c r="R50" s="53"/>
+      <c r="S50" s="53"/>
+      <c r="T50" s="53"/>
+      <c r="U50" s="53"/>
+      <c r="V50" s="53"/>
+      <c r="W50" s="53"/>
+      <c r="X50" s="53"/>
+      <c r="Y50" s="53"/>
+      <c r="Z50" s="53"/>
+      <c r="AA50" s="53"/>
+      <c r="AB50" s="53"/>
+      <c r="AC50" s="53"/>
+      <c r="AD50" s="53"/>
+    </row>
+    <row r="51" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="53"/>
+      <c r="H51" s="53"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="53"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="53"/>
+      <c r="M51" s="53"/>
+      <c r="N51" s="53"/>
+      <c r="O51" s="53"/>
+      <c r="P51" s="53"/>
+      <c r="Q51" s="53"/>
+      <c r="R51" s="53"/>
+      <c r="S51" s="53"/>
+      <c r="T51" s="53"/>
+      <c r="U51" s="53"/>
+      <c r="V51" s="53"/>
+      <c r="W51" s="53"/>
+      <c r="X51" s="53"/>
+      <c r="Y51" s="53"/>
+      <c r="Z51" s="53"/>
+      <c r="AA51" s="53"/>
+      <c r="AB51" s="53"/>
+      <c r="AC51" s="53"/>
+      <c r="AD51" s="53"/>
+    </row>
+    <row r="52" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="53"/>
+      <c r="K52" s="53"/>
+      <c r="L52" s="53"/>
+      <c r="M52" s="53"/>
+      <c r="N52" s="53"/>
+      <c r="O52" s="53"/>
+      <c r="P52" s="53"/>
+      <c r="Q52" s="53"/>
+      <c r="R52" s="53"/>
+      <c r="S52" s="53"/>
+      <c r="T52" s="53"/>
+      <c r="U52" s="53"/>
+      <c r="V52" s="53"/>
+      <c r="W52" s="53"/>
+      <c r="X52" s="53"/>
+      <c r="Y52" s="53"/>
+      <c r="Z52" s="53"/>
+      <c r="AA52" s="53"/>
+      <c r="AB52" s="53"/>
+      <c r="AC52" s="53"/>
+      <c r="AD52" s="53"/>
+    </row>
+    <row r="53" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="53"/>
+      <c r="K53" s="53"/>
+      <c r="L53" s="53"/>
+      <c r="M53" s="53"/>
+      <c r="N53" s="53"/>
+      <c r="O53" s="53"/>
+      <c r="P53" s="53"/>
+      <c r="Q53" s="53"/>
+      <c r="R53" s="53"/>
+      <c r="S53" s="53"/>
+      <c r="T53" s="53"/>
+      <c r="U53" s="53"/>
+      <c r="V53" s="53"/>
+      <c r="W53" s="53"/>
+      <c r="X53" s="53"/>
+      <c r="Y53" s="53"/>
+      <c r="Z53" s="53"/>
+      <c r="AA53" s="53"/>
+      <c r="AB53" s="53"/>
+      <c r="AC53" s="53"/>
+      <c r="AD53" s="53"/>
+    </row>
+    <row r="54" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="53"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="53"/>
+      <c r="M54" s="53"/>
+      <c r="N54" s="53"/>
+      <c r="O54" s="53"/>
+      <c r="P54" s="53"/>
+      <c r="Q54" s="53"/>
+      <c r="R54" s="53"/>
+      <c r="S54" s="53"/>
+      <c r="T54" s="53"/>
+      <c r="U54" s="53"/>
+      <c r="V54" s="53"/>
+      <c r="W54" s="53"/>
+      <c r="X54" s="53"/>
+      <c r="Y54" s="53"/>
+      <c r="Z54" s="53"/>
+      <c r="AA54" s="53"/>
+      <c r="AB54" s="53"/>
+      <c r="AC54" s="53"/>
+      <c r="AD54" s="53"/>
+    </row>
+    <row r="55" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="53"/>
+      <c r="H55" s="53"/>
+      <c r="I55" s="53"/>
+      <c r="J55" s="53"/>
+      <c r="K55" s="53"/>
+      <c r="L55" s="53"/>
+      <c r="M55" s="53"/>
+      <c r="N55" s="53"/>
+      <c r="O55" s="53"/>
+      <c r="P55" s="53"/>
+      <c r="Q55" s="53"/>
+      <c r="R55" s="53"/>
+      <c r="S55" s="53"/>
+      <c r="T55" s="53"/>
+      <c r="U55" s="53"/>
+      <c r="V55" s="53"/>
+      <c r="W55" s="53"/>
+      <c r="X55" s="53"/>
+      <c r="Y55" s="53"/>
+      <c r="Z55" s="53"/>
+      <c r="AA55" s="53"/>
+      <c r="AB55" s="53"/>
+      <c r="AC55" s="53"/>
+      <c r="AD55" s="53"/>
+    </row>
+    <row r="56" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="53"/>
+      <c r="K56" s="53"/>
+      <c r="L56" s="53"/>
+      <c r="M56" s="53"/>
+      <c r="N56" s="53"/>
+      <c r="O56" s="53"/>
+      <c r="P56" s="53"/>
+      <c r="Q56" s="53"/>
+      <c r="R56" s="53"/>
+      <c r="S56" s="53"/>
+      <c r="T56" s="53"/>
+      <c r="U56" s="53"/>
+      <c r="V56" s="53"/>
+      <c r="W56" s="53"/>
+      <c r="X56" s="53"/>
+      <c r="Y56" s="53"/>
+      <c r="Z56" s="53"/>
+      <c r="AA56" s="53"/>
+      <c r="AB56" s="53"/>
+      <c r="AC56" s="53"/>
+      <c r="AD56" s="53"/>
+    </row>
+    <row r="57" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="53"/>
+      <c r="I57" s="53"/>
+      <c r="J57" s="53"/>
+      <c r="K57" s="53"/>
+      <c r="L57" s="53"/>
+      <c r="M57" s="53"/>
+      <c r="N57" s="53"/>
+      <c r="O57" s="53"/>
+      <c r="P57" s="53"/>
+      <c r="Q57" s="53"/>
+      <c r="R57" s="53"/>
+      <c r="S57" s="53"/>
+      <c r="T57" s="53"/>
+      <c r="U57" s="53"/>
+      <c r="V57" s="53"/>
+      <c r="W57" s="53"/>
+      <c r="X57" s="53"/>
+      <c r="Y57" s="53"/>
+      <c r="Z57" s="53"/>
+      <c r="AA57" s="53"/>
+      <c r="AB57" s="53"/>
+      <c r="AC57" s="53"/>
+      <c r="AD57" s="53"/>
+    </row>
+    <row r="58" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="53"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="53"/>
+      <c r="H58" s="53"/>
+      <c r="I58" s="53"/>
+      <c r="J58" s="53"/>
+      <c r="K58" s="53"/>
+      <c r="L58" s="53"/>
+      <c r="M58" s="53"/>
+      <c r="N58" s="53"/>
+      <c r="O58" s="53"/>
+      <c r="P58" s="53"/>
+      <c r="Q58" s="53"/>
+      <c r="R58" s="53"/>
+      <c r="S58" s="53"/>
+      <c r="T58" s="53"/>
+      <c r="U58" s="53"/>
+      <c r="V58" s="53"/>
+      <c r="W58" s="53"/>
+      <c r="X58" s="53"/>
+      <c r="Y58" s="53"/>
+      <c r="Z58" s="53"/>
+      <c r="AA58" s="53"/>
+      <c r="AB58" s="53"/>
+      <c r="AC58" s="53"/>
+      <c r="AD58" s="53"/>
+    </row>
+    <row r="59" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="53"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="53"/>
+      <c r="G59" s="53"/>
+      <c r="H59" s="53"/>
+      <c r="I59" s="53"/>
+      <c r="J59" s="53"/>
+      <c r="K59" s="53"/>
+      <c r="L59" s="53"/>
+      <c r="M59" s="53"/>
+      <c r="N59" s="53"/>
+      <c r="O59" s="53"/>
+      <c r="P59" s="53"/>
+      <c r="Q59" s="53"/>
+      <c r="R59" s="53"/>
+      <c r="S59" s="53"/>
+      <c r="T59" s="53"/>
+      <c r="U59" s="53"/>
+      <c r="V59" s="53"/>
+      <c r="W59" s="53"/>
+      <c r="X59" s="53"/>
+      <c r="Y59" s="53"/>
+      <c r="Z59" s="53"/>
+      <c r="AA59" s="53"/>
+      <c r="AB59" s="53"/>
+      <c r="AC59" s="53"/>
+      <c r="AD59" s="53"/>
+    </row>
+    <row r="60" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="53"/>
+      <c r="F60" s="53"/>
+      <c r="G60" s="53"/>
+      <c r="H60" s="53"/>
+      <c r="I60" s="53"/>
+      <c r="J60" s="53"/>
+      <c r="K60" s="53"/>
+      <c r="L60" s="53"/>
+      <c r="M60" s="53"/>
+      <c r="N60" s="53"/>
+      <c r="O60" s="53"/>
+      <c r="P60" s="53"/>
+      <c r="Q60" s="53"/>
+      <c r="R60" s="53"/>
+      <c r="S60" s="53"/>
+      <c r="T60" s="53"/>
+      <c r="U60" s="53"/>
+      <c r="V60" s="53"/>
+      <c r="W60" s="53"/>
+      <c r="X60" s="53"/>
+      <c r="Y60" s="53"/>
+      <c r="Z60" s="53"/>
+      <c r="AA60" s="53"/>
+      <c r="AB60" s="53"/>
+      <c r="AC60" s="53"/>
+      <c r="AD60" s="53"/>
+    </row>
+    <row r="61" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="53"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="53"/>
+      <c r="G61" s="53"/>
+      <c r="H61" s="53"/>
+      <c r="I61" s="53"/>
+      <c r="J61" s="53"/>
+      <c r="K61" s="53"/>
+      <c r="L61" s="53"/>
+      <c r="M61" s="53"/>
+      <c r="N61" s="53"/>
+      <c r="O61" s="53"/>
+      <c r="P61" s="53"/>
+      <c r="Q61" s="53"/>
+      <c r="R61" s="53"/>
+      <c r="S61" s="53"/>
+      <c r="T61" s="53"/>
+      <c r="U61" s="53"/>
+      <c r="V61" s="53"/>
+      <c r="W61" s="53"/>
+      <c r="X61" s="53"/>
+      <c r="Y61" s="53"/>
+      <c r="Z61" s="53"/>
+      <c r="AA61" s="53"/>
+      <c r="AB61" s="53"/>
+      <c r="AC61" s="53"/>
+      <c r="AD61" s="53"/>
+    </row>
+    <row r="62" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="53"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="53"/>
+      <c r="H62" s="53"/>
+      <c r="I62" s="53"/>
+      <c r="J62" s="53"/>
+      <c r="K62" s="53"/>
+      <c r="L62" s="53"/>
+      <c r="M62" s="53"/>
+      <c r="N62" s="53"/>
+      <c r="O62" s="53"/>
+      <c r="P62" s="53"/>
+      <c r="Q62" s="53"/>
+      <c r="R62" s="53"/>
+      <c r="S62" s="53"/>
+      <c r="T62" s="53"/>
+      <c r="U62" s="53"/>
+      <c r="V62" s="53"/>
+      <c r="W62" s="53"/>
+      <c r="X62" s="53"/>
+      <c r="Y62" s="53"/>
+      <c r="Z62" s="53"/>
+      <c r="AA62" s="53"/>
+      <c r="AB62" s="53"/>
+      <c r="AC62" s="53"/>
+      <c r="AD62" s="53"/>
+    </row>
+    <row r="63" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7315,6 +9370,7 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -7327,7 +9383,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.6640625" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" customWidth="1"/>

--- a/DOCUMENTATION/DocumentDePlanification.xlsx
+++ b/DOCUMENTATION/DocumentDePlanification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxxr\Documents\GitHub\C61-MaximeRabbat-AbigailFournier\DOCUMENTATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0F2748-D441-492F-927C-3632F77E4335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E171D651-8161-4AF1-BB79-1235FC1E7D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planification" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="126">
   <si>
     <t>Planification globale</t>
   </si>
@@ -371,6 +371,42 @@
   </si>
   <si>
     <t>Fait en sprint 2</t>
+  </si>
+  <si>
+    <t>SPRINT 3</t>
+  </si>
+  <si>
+    <t>Wardrobe /Avatar Scene</t>
+  </si>
+  <si>
+    <t>Color Chooser (avatar)</t>
+  </si>
+  <si>
+    <t>Fix Option Volume</t>
+  </si>
+  <si>
+    <t>Animation Jump for Character</t>
+  </si>
+  <si>
+    <t>Level Node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finir ennemies </t>
+  </si>
+  <si>
+    <t>Création de Interactive Object</t>
+  </si>
+  <si>
+    <t>Création de Tool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création de Obstacle </t>
+  </si>
+  <si>
+    <t>Level Start</t>
+  </si>
+  <si>
+    <t>niveaux ne sont pas tous existant encore</t>
   </si>
 </sst>
 </file>
@@ -380,7 +416,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;$&quot;_);[Red]\(#,##0.00\ &quot;$&quot;\)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,6 +468,31 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="21">
@@ -729,7 +790,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -775,10 +836,8 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="4" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -800,6 +859,13 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1022,7 +1088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1029"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -6254,7 +6320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD1001"/>
   <sheetViews>
-    <sheetView zoomScale="95" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="95" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -6279,47 +6345,47 @@
       <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
     </row>
     <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
     </row>
     <row r="3" spans="1:30" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="51"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="24"/>
       <c r="C3" s="18"/>
       <c r="D3" s="18" t="s">
@@ -6337,27 +6403,27 @@
       </c>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="53"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+      <c r="Z3" s="51"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="51"/>
+      <c r="AC3" s="51"/>
+      <c r="AD3" s="51"/>
     </row>
     <row r="4" spans="1:30" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="51"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="24" t="s">
         <v>2</v>
       </c>
@@ -6391,31 +6457,31 @@
       <c r="L4" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
-      <c r="Z4" s="53"/>
-      <c r="AA4" s="53"/>
-      <c r="AB4" s="53"/>
-      <c r="AC4" s="53"/>
-      <c r="AD4" s="53"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="51"/>
+      <c r="AA4" s="51"/>
+      <c r="AB4" s="51"/>
+      <c r="AC4" s="51"/>
+      <c r="AD4" s="51"/>
     </row>
     <row r="5" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="41" t="s">
         <v>66</v>
       </c>
       <c r="D5">
@@ -6424,14 +6490,14 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" s="40"/>
+      <c r="F5" s="39"/>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" s="40"/>
+      <c r="I5" s="39"/>
       <c r="J5">
         <v>1</v>
       </c>
@@ -6441,31 +6507,31 @@
       <c r="L5" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="53"/>
-      <c r="Y5" s="53"/>
-      <c r="Z5" s="53"/>
-      <c r="AA5" s="53"/>
-      <c r="AB5" s="53"/>
-      <c r="AC5" s="53"/>
-      <c r="AD5" s="53"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
+      <c r="X5" s="51"/>
+      <c r="Y5" s="51"/>
+      <c r="Z5" s="51"/>
+      <c r="AA5" s="51"/>
+      <c r="AB5" s="51"/>
+      <c r="AC5" s="51"/>
+      <c r="AD5" s="51"/>
     </row>
     <row r="6" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="51"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="41" t="s">
         <v>66</v>
       </c>
       <c r="D6">
@@ -6474,7 +6540,7 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" s="40"/>
+      <c r="F6" s="39"/>
       <c r="G6">
         <v>4</v>
       </c>
@@ -6493,31 +6559,31 @@
       <c r="L6" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="53"/>
-      <c r="X6" s="53"/>
-      <c r="Y6" s="53"/>
-      <c r="Z6" s="53"/>
-      <c r="AA6" s="53"/>
-      <c r="AB6" s="53"/>
-      <c r="AC6" s="53"/>
-      <c r="AD6" s="53"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="51"/>
+      <c r="X6" s="51"/>
+      <c r="Y6" s="51"/>
+      <c r="Z6" s="51"/>
+      <c r="AA6" s="51"/>
+      <c r="AB6" s="51"/>
+      <c r="AC6" s="51"/>
+      <c r="AD6" s="51"/>
     </row>
     <row r="7" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="41" t="s">
         <v>66</v>
       </c>
       <c r="D7">
@@ -6526,14 +6592,14 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" s="40"/>
+      <c r="F7" s="39"/>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" s="40"/>
+      <c r="I7" s="39"/>
       <c r="J7">
         <v>0</v>
       </c>
@@ -6543,31 +6609,31 @@
       <c r="L7" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="53"/>
-      <c r="AB7" s="53"/>
-      <c r="AC7" s="53"/>
-      <c r="AD7" s="53"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="51"/>
+      <c r="X7" s="51"/>
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="51"/>
+      <c r="AB7" s="51"/>
+      <c r="AC7" s="51"/>
+      <c r="AD7" s="51"/>
     </row>
     <row r="8" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="41" t="s">
         <v>66</v>
       </c>
       <c r="D8">
@@ -6576,48 +6642,48 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" s="40"/>
+      <c r="F8" s="39"/>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" s="40"/>
+      <c r="I8" s="39"/>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="L8" s="39" t="s">
+      <c r="L8" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="53"/>
-      <c r="U8" s="53"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="53"/>
-      <c r="Y8" s="53"/>
-      <c r="Z8" s="53"/>
-      <c r="AA8" s="53"/>
-      <c r="AB8" s="53"/>
-      <c r="AC8" s="53"/>
-      <c r="AD8" s="53"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="51"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="51"/>
+      <c r="Z8" s="51"/>
+      <c r="AA8" s="51"/>
+      <c r="AB8" s="51"/>
+      <c r="AC8" s="51"/>
+      <c r="AD8" s="51"/>
     </row>
     <row r="9" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="51"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="42" t="s">
         <v>56</v>
       </c>
       <c r="D9">
@@ -6626,14 +6692,14 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" s="40"/>
+      <c r="F9" s="39"/>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" s="40"/>
+      <c r="I9" s="39"/>
       <c r="J9">
         <v>2</v>
       </c>
@@ -6643,31 +6709,31 @@
       <c r="L9" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53"/>
-      <c r="T9" s="53"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="53"/>
-      <c r="W9" s="53"/>
-      <c r="X9" s="53"/>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="53"/>
-      <c r="AB9" s="53"/>
-      <c r="AC9" s="53"/>
-      <c r="AD9" s="53"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="51"/>
+      <c r="X9" s="51"/>
+      <c r="Y9" s="51"/>
+      <c r="Z9" s="51"/>
+      <c r="AA9" s="51"/>
+      <c r="AB9" s="51"/>
+      <c r="AC9" s="51"/>
+      <c r="AD9" s="51"/>
     </row>
     <row r="10" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="51"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="41" t="s">
         <v>66</v>
       </c>
       <c r="D10">
@@ -6676,14 +6742,14 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10" s="40"/>
+      <c r="F10" s="39"/>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10" s="40"/>
+      <c r="I10" s="39"/>
       <c r="J10">
         <v>0</v>
       </c>
@@ -6693,31 +6759,31 @@
       <c r="L10" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="53"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="53"/>
-      <c r="X10" s="53"/>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="53"/>
-      <c r="AA10" s="53"/>
-      <c r="AB10" s="53"/>
-      <c r="AC10" s="53"/>
-      <c r="AD10" s="53"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="51"/>
+      <c r="Y10" s="51"/>
+      <c r="Z10" s="51"/>
+      <c r="AA10" s="51"/>
+      <c r="AB10" s="51"/>
+      <c r="AC10" s="51"/>
+      <c r="AD10" s="51"/>
     </row>
     <row r="11" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="51"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="43" t="s">
         <v>56</v>
       </c>
       <c r="D11">
@@ -6726,14 +6792,14 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" s="40"/>
+      <c r="F11" s="39"/>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" s="40"/>
+      <c r="I11" s="39"/>
       <c r="J11">
         <v>0</v>
       </c>
@@ -6743,31 +6809,31 @@
       <c r="L11" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="53"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="53"/>
-      <c r="W11" s="53"/>
-      <c r="X11" s="53"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="53"/>
-      <c r="AA11" s="53"/>
-      <c r="AB11" s="53"/>
-      <c r="AC11" s="53"/>
-      <c r="AD11" s="53"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="51"/>
+      <c r="X11" s="51"/>
+      <c r="Y11" s="51"/>
+      <c r="Z11" s="51"/>
+      <c r="AA11" s="51"/>
+      <c r="AB11" s="51"/>
+      <c r="AC11" s="51"/>
+      <c r="AD11" s="51"/>
     </row>
     <row r="12" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="51"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="43" t="s">
         <v>56</v>
       </c>
       <c r="D12">
@@ -6776,14 +6842,14 @@
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12" s="40"/>
+      <c r="F12" s="39"/>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12" s="40"/>
+      <c r="I12" s="39"/>
       <c r="J12">
         <v>0</v>
       </c>
@@ -6793,31 +6859,31 @@
       <c r="L12" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="53"/>
-      <c r="T12" s="53"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="53"/>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="53"/>
-      <c r="AA12" s="53"/>
-      <c r="AB12" s="53"/>
-      <c r="AC12" s="53"/>
-      <c r="AD12" s="53"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="51"/>
+      <c r="AB12" s="51"/>
+      <c r="AC12" s="51"/>
+      <c r="AD12" s="51"/>
     </row>
     <row r="13" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="51"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="43" t="s">
         <v>56</v>
       </c>
       <c r="D13">
@@ -6826,14 +6892,14 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" s="40"/>
+      <c r="F13" s="39"/>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13" s="40"/>
+      <c r="I13" s="39"/>
       <c r="J13">
         <v>0</v>
       </c>
@@ -6843,31 +6909,31 @@
       <c r="L13" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="53"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="53"/>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="53"/>
-      <c r="AA13" s="53"/>
-      <c r="AB13" s="53"/>
-      <c r="AC13" s="53"/>
-      <c r="AD13" s="53"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="51"/>
+      <c r="W13" s="51"/>
+      <c r="X13" s="51"/>
+      <c r="Y13" s="51"/>
+      <c r="Z13" s="51"/>
+      <c r="AA13" s="51"/>
+      <c r="AB13" s="51"/>
+      <c r="AC13" s="51"/>
+      <c r="AD13" s="51"/>
     </row>
     <row r="14" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="51"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="41" t="s">
         <v>66</v>
       </c>
       <c r="D14">
@@ -6876,14 +6942,14 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14" s="40"/>
+      <c r="F14" s="39"/>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14" s="40"/>
+      <c r="I14" s="39"/>
       <c r="J14">
         <v>0</v>
       </c>
@@ -6893,31 +6959,31 @@
       <c r="L14" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="53"/>
-      <c r="V14" s="53"/>
-      <c r="W14" s="53"/>
-      <c r="X14" s="53"/>
-      <c r="Y14" s="53"/>
-      <c r="Z14" s="53"/>
-      <c r="AA14" s="53"/>
-      <c r="AB14" s="53"/>
-      <c r="AC14" s="53"/>
-      <c r="AD14" s="53"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="51"/>
+      <c r="V14" s="51"/>
+      <c r="W14" s="51"/>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="51"/>
+      <c r="Z14" s="51"/>
+      <c r="AA14" s="51"/>
+      <c r="AB14" s="51"/>
+      <c r="AC14" s="51"/>
+      <c r="AD14" s="51"/>
     </row>
     <row r="15" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="51"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="45" t="s">
         <v>61</v>
       </c>
       <c r="D15">
@@ -6935,7 +7001,7 @@
       <c r="H15">
         <v>100</v>
       </c>
-      <c r="I15" s="40"/>
+      <c r="I15" s="39"/>
       <c r="J15">
         <v>0</v>
       </c>
@@ -6945,31 +7011,31 @@
       <c r="L15" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="53"/>
-      <c r="T15" s="53"/>
-      <c r="U15" s="53"/>
-      <c r="V15" s="53"/>
-      <c r="W15" s="53"/>
-      <c r="X15" s="53"/>
-      <c r="Y15" s="53"/>
-      <c r="Z15" s="53"/>
-      <c r="AA15" s="53"/>
-      <c r="AB15" s="53"/>
-      <c r="AC15" s="53"/>
-      <c r="AD15" s="53"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
+      <c r="V15" s="51"/>
+      <c r="W15" s="51"/>
+      <c r="X15" s="51"/>
+      <c r="Y15" s="51"/>
+      <c r="Z15" s="51"/>
+      <c r="AA15" s="51"/>
+      <c r="AB15" s="51"/>
+      <c r="AC15" s="51"/>
+      <c r="AD15" s="51"/>
     </row>
     <row r="16" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="51"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="44" t="s">
         <v>56</v>
       </c>
       <c r="D16">
@@ -6978,14 +7044,14 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16" s="41"/>
+      <c r="F16" s="40"/>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
         <v>20</v>
       </c>
-      <c r="I16" s="41"/>
+      <c r="I16" s="40"/>
       <c r="J16">
         <v>1</v>
       </c>
@@ -6995,31 +7061,31 @@
       <c r="L16" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="53"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="53"/>
-      <c r="V16" s="53"/>
-      <c r="W16" s="53"/>
-      <c r="X16" s="53"/>
-      <c r="Y16" s="53"/>
-      <c r="Z16" s="53"/>
-      <c r="AA16" s="53"/>
-      <c r="AB16" s="53"/>
-      <c r="AC16" s="53"/>
-      <c r="AD16" s="53"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="51"/>
+      <c r="U16" s="51"/>
+      <c r="V16" s="51"/>
+      <c r="W16" s="51"/>
+      <c r="X16" s="51"/>
+      <c r="Y16" s="51"/>
+      <c r="Z16" s="51"/>
+      <c r="AA16" s="51"/>
+      <c r="AB16" s="51"/>
+      <c r="AC16" s="51"/>
+      <c r="AD16" s="51"/>
     </row>
     <row r="17" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="51"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="45" t="s">
         <v>61</v>
       </c>
       <c r="D17">
@@ -7028,14 +7094,14 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17" s="40"/>
+      <c r="F17" s="39"/>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
-      <c r="I17" s="40"/>
+      <c r="I17" s="39"/>
       <c r="J17">
         <v>2</v>
       </c>
@@ -7045,58 +7111,58 @@
       <c r="L17" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="53"/>
-      <c r="S17" s="53"/>
-      <c r="T17" s="53"/>
-      <c r="U17" s="53"/>
-      <c r="V17" s="53"/>
-      <c r="W17" s="53"/>
-      <c r="X17" s="53"/>
-      <c r="Y17" s="53"/>
-      <c r="Z17" s="53"/>
-      <c r="AA17" s="53"/>
-      <c r="AB17" s="53"/>
-      <c r="AC17" s="53"/>
-      <c r="AD17" s="53"/>
-    </row>
-    <row r="18" spans="1:30" s="50" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="52"/>
-      <c r="B18" s="48" t="s">
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="51"/>
+      <c r="U17" s="51"/>
+      <c r="V17" s="51"/>
+      <c r="W17" s="51"/>
+      <c r="X17" s="51"/>
+      <c r="Y17" s="51"/>
+      <c r="Z17" s="51"/>
+      <c r="AA17" s="51"/>
+      <c r="AB17" s="51"/>
+      <c r="AC17" s="51"/>
+      <c r="AD17" s="51"/>
+    </row>
+    <row r="18" spans="1:30" s="48" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="50"/>
+      <c r="B18" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="54"/>
-      <c r="W18" s="54"/>
-      <c r="X18" s="54"/>
-      <c r="Y18" s="54"/>
-      <c r="Z18" s="54"/>
-      <c r="AA18" s="54"/>
-      <c r="AB18" s="54"/>
-      <c r="AC18" s="54"/>
-      <c r="AD18" s="54"/>
+      <c r="C18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="52"/>
+      <c r="X18" s="52"/>
+      <c r="Y18" s="52"/>
+      <c r="Z18" s="52"/>
+      <c r="AA18" s="52"/>
+      <c r="AB18" s="52"/>
+      <c r="AC18" s="52"/>
+      <c r="AD18" s="52"/>
     </row>
     <row r="19" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B19" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="41" t="s">
         <v>66</v>
       </c>
       <c r="D19">
@@ -7105,14 +7171,14 @@
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19" s="40"/>
+      <c r="F19" s="39"/>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="I19" s="40"/>
+      <c r="I19" s="39"/>
       <c r="J19">
         <v>2</v>
       </c>
@@ -7122,30 +7188,30 @@
       <c r="L19" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="53"/>
-      <c r="S19" s="53"/>
-      <c r="T19" s="53"/>
-      <c r="U19" s="53"/>
-      <c r="V19" s="53"/>
-      <c r="W19" s="53"/>
-      <c r="X19" s="53"/>
-      <c r="Y19" s="53"/>
-      <c r="Z19" s="53"/>
-      <c r="AA19" s="53"/>
-      <c r="AB19" s="53"/>
-      <c r="AC19" s="53"/>
-      <c r="AD19" s="53"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="51"/>
+      <c r="T19" s="51"/>
+      <c r="U19" s="51"/>
+      <c r="V19" s="51"/>
+      <c r="W19" s="51"/>
+      <c r="X19" s="51"/>
+      <c r="Y19" s="51"/>
+      <c r="Z19" s="51"/>
+      <c r="AA19" s="51"/>
+      <c r="AB19" s="51"/>
+      <c r="AC19" s="51"/>
+      <c r="AD19" s="51"/>
     </row>
     <row r="20" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B20" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="41" t="s">
         <v>66</v>
       </c>
       <c r="D20">
@@ -7154,7 +7220,7 @@
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20" s="40"/>
+      <c r="F20" s="39"/>
       <c r="G20">
         <v>0</v>
       </c>
@@ -7173,30 +7239,30 @@
       <c r="L20" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="53"/>
-      <c r="R20" s="53"/>
-      <c r="S20" s="53"/>
-      <c r="T20" s="53"/>
-      <c r="U20" s="53"/>
-      <c r="V20" s="53"/>
-      <c r="W20" s="53"/>
-      <c r="X20" s="53"/>
-      <c r="Y20" s="53"/>
-      <c r="Z20" s="53"/>
-      <c r="AA20" s="53"/>
-      <c r="AB20" s="53"/>
-      <c r="AC20" s="53"/>
-      <c r="AD20" s="53"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="51"/>
+      <c r="V20" s="51"/>
+      <c r="W20" s="51"/>
+      <c r="X20" s="51"/>
+      <c r="Y20" s="51"/>
+      <c r="Z20" s="51"/>
+      <c r="AA20" s="51"/>
+      <c r="AB20" s="51"/>
+      <c r="AC20" s="51"/>
+      <c r="AD20" s="51"/>
     </row>
     <row r="21" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B21" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="41" t="s">
         <v>66</v>
       </c>
       <c r="D21">
@@ -7205,45 +7271,45 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21" s="40"/>
+      <c r="F21" s="39"/>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
-      <c r="I21" s="40"/>
+      <c r="I21" s="39"/>
       <c r="J21">
         <v>2</v>
       </c>
       <c r="K21">
         <v>100</v>
       </c>
-      <c r="L21" s="42"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="53"/>
-      <c r="S21" s="53"/>
-      <c r="T21" s="53"/>
-      <c r="U21" s="53"/>
-      <c r="V21" s="53"/>
-      <c r="W21" s="53"/>
-      <c r="X21" s="53"/>
-      <c r="Y21" s="53"/>
-      <c r="Z21" s="53"/>
-      <c r="AA21" s="53"/>
-      <c r="AB21" s="53"/>
-      <c r="AC21" s="53"/>
-      <c r="AD21" s="53"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="51"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="51"/>
+      <c r="U21" s="51"/>
+      <c r="V21" s="51"/>
+      <c r="W21" s="51"/>
+      <c r="X21" s="51"/>
+      <c r="Y21" s="51"/>
+      <c r="Z21" s="51"/>
+      <c r="AA21" s="51"/>
+      <c r="AB21" s="51"/>
+      <c r="AC21" s="51"/>
+      <c r="AD21" s="51"/>
     </row>
     <row r="22" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="45" t="s">
         <v>61</v>
       </c>
       <c r="D22">
@@ -7252,14 +7318,14 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22" s="40"/>
+      <c r="F22" s="39"/>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="I22" s="40"/>
+      <c r="I22" s="39"/>
       <c r="J22">
         <v>0</v>
       </c>
@@ -7269,30 +7335,30 @@
       <c r="L22" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="53"/>
-      <c r="S22" s="53"/>
-      <c r="T22" s="53"/>
-      <c r="U22" s="53"/>
-      <c r="V22" s="53"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="53"/>
-      <c r="Y22" s="53"/>
-      <c r="Z22" s="53"/>
-      <c r="AA22" s="53"/>
-      <c r="AB22" s="53"/>
-      <c r="AC22" s="53"/>
-      <c r="AD22" s="53"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="51"/>
+      <c r="V22" s="51"/>
+      <c r="W22" s="51"/>
+      <c r="X22" s="51"/>
+      <c r="Y22" s="51"/>
+      <c r="Z22" s="51"/>
+      <c r="AA22" s="51"/>
+      <c r="AB22" s="51"/>
+      <c r="AC22" s="51"/>
+      <c r="AD22" s="51"/>
     </row>
     <row r="23" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="45" t="s">
         <v>61</v>
       </c>
       <c r="D23">
@@ -7301,14 +7367,14 @@
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23" s="40"/>
+      <c r="F23" s="39"/>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="I23" s="40"/>
+      <c r="I23" s="39"/>
       <c r="J23">
         <v>0</v>
       </c>
@@ -7318,24 +7384,24 @@
       <c r="L23" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="53"/>
-      <c r="V23" s="53"/>
-      <c r="W23" s="53"/>
-      <c r="X23" s="53"/>
-      <c r="Y23" s="53"/>
-      <c r="Z23" s="53"/>
-      <c r="AA23" s="53"/>
-      <c r="AB23" s="53"/>
-      <c r="AC23" s="53"/>
-      <c r="AD23" s="53"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="51"/>
+      <c r="V23" s="51"/>
+      <c r="W23" s="51"/>
+      <c r="X23" s="51"/>
+      <c r="Y23" s="51"/>
+      <c r="Z23" s="51"/>
+      <c r="AA23" s="51"/>
+      <c r="AB23" s="51"/>
+      <c r="AC23" s="51"/>
+      <c r="AD23" s="51"/>
     </row>
     <row r="24" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="23"/>
@@ -7343,24 +7409,24 @@
       <c r="F24" s="17"/>
       <c r="I24" s="17"/>
       <c r="L24" s="17"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="53"/>
-      <c r="T24" s="53"/>
-      <c r="U24" s="53"/>
-      <c r="V24" s="53"/>
-      <c r="W24" s="53"/>
-      <c r="X24" s="53"/>
-      <c r="Y24" s="53"/>
-      <c r="Z24" s="53"/>
-      <c r="AA24" s="53"/>
-      <c r="AB24" s="53"/>
-      <c r="AC24" s="53"/>
-      <c r="AD24" s="53"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="51"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="51"/>
+      <c r="V24" s="51"/>
+      <c r="W24" s="51"/>
+      <c r="X24" s="51"/>
+      <c r="Y24" s="51"/>
+      <c r="Z24" s="51"/>
+      <c r="AA24" s="51"/>
+      <c r="AB24" s="51"/>
+      <c r="AC24" s="51"/>
+      <c r="AD24" s="51"/>
     </row>
     <row r="25" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="23"/>
@@ -7368,24 +7434,24 @@
       <c r="F25" s="17"/>
       <c r="I25" s="17"/>
       <c r="L25" s="17"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="53"/>
-      <c r="S25" s="53"/>
-      <c r="T25" s="53"/>
-      <c r="U25" s="53"/>
-      <c r="V25" s="53"/>
-      <c r="W25" s="53"/>
-      <c r="X25" s="53"/>
-      <c r="Y25" s="53"/>
-      <c r="Z25" s="53"/>
-      <c r="AA25" s="53"/>
-      <c r="AB25" s="53"/>
-      <c r="AC25" s="53"/>
-      <c r="AD25" s="53"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="51"/>
+      <c r="S25" s="51"/>
+      <c r="T25" s="51"/>
+      <c r="U25" s="51"/>
+      <c r="V25" s="51"/>
+      <c r="W25" s="51"/>
+      <c r="X25" s="51"/>
+      <c r="Y25" s="51"/>
+      <c r="Z25" s="51"/>
+      <c r="AA25" s="51"/>
+      <c r="AB25" s="51"/>
+      <c r="AC25" s="51"/>
+      <c r="AD25" s="51"/>
     </row>
     <row r="26" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="23"/>
@@ -7393,24 +7459,24 @@
       <c r="F26" s="17"/>
       <c r="I26" s="17"/>
       <c r="L26" s="17"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="53"/>
-      <c r="T26" s="53"/>
-      <c r="U26" s="53"/>
-      <c r="V26" s="53"/>
-      <c r="W26" s="53"/>
-      <c r="X26" s="53"/>
-      <c r="Y26" s="53"/>
-      <c r="Z26" s="53"/>
-      <c r="AA26" s="53"/>
-      <c r="AB26" s="53"/>
-      <c r="AC26" s="53"/>
-      <c r="AD26" s="53"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="X26" s="51"/>
+      <c r="Y26" s="51"/>
+      <c r="Z26" s="51"/>
+      <c r="AA26" s="51"/>
+      <c r="AB26" s="51"/>
+      <c r="AC26" s="51"/>
+      <c r="AD26" s="51"/>
     </row>
     <row r="27" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23"/>
@@ -7418,24 +7484,24 @@
       <c r="F27" s="17"/>
       <c r="I27" s="17"/>
       <c r="L27" s="17"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="53"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="53"/>
-      <c r="Y27" s="53"/>
-      <c r="Z27" s="53"/>
-      <c r="AA27" s="53"/>
-      <c r="AB27" s="53"/>
-      <c r="AC27" s="53"/>
-      <c r="AD27" s="53"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="51"/>
+      <c r="S27" s="51"/>
+      <c r="T27" s="51"/>
+      <c r="U27" s="51"/>
+      <c r="V27" s="51"/>
+      <c r="W27" s="51"/>
+      <c r="X27" s="51"/>
+      <c r="Y27" s="51"/>
+      <c r="Z27" s="51"/>
+      <c r="AA27" s="51"/>
+      <c r="AB27" s="51"/>
+      <c r="AC27" s="51"/>
+      <c r="AD27" s="51"/>
     </row>
     <row r="28" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23"/>
@@ -7443,24 +7509,24 @@
       <c r="F28" s="17"/>
       <c r="I28" s="17"/>
       <c r="L28" s="17"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="53"/>
-      <c r="R28" s="53"/>
-      <c r="S28" s="53"/>
-      <c r="T28" s="53"/>
-      <c r="U28" s="53"/>
-      <c r="V28" s="53"/>
-      <c r="W28" s="53"/>
-      <c r="X28" s="53"/>
-      <c r="Y28" s="53"/>
-      <c r="Z28" s="53"/>
-      <c r="AA28" s="53"/>
-      <c r="AB28" s="53"/>
-      <c r="AC28" s="53"/>
-      <c r="AD28" s="53"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="51"/>
+      <c r="U28" s="51"/>
+      <c r="V28" s="51"/>
+      <c r="W28" s="51"/>
+      <c r="X28" s="51"/>
+      <c r="Y28" s="51"/>
+      <c r="Z28" s="51"/>
+      <c r="AA28" s="51"/>
+      <c r="AB28" s="51"/>
+      <c r="AC28" s="51"/>
+      <c r="AD28" s="51"/>
     </row>
     <row r="29" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23"/>
@@ -7468,24 +7534,24 @@
       <c r="F29" s="17"/>
       <c r="I29" s="17"/>
       <c r="L29" s="17"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="53"/>
-      <c r="T29" s="53"/>
-      <c r="U29" s="53"/>
-      <c r="V29" s="53"/>
-      <c r="W29" s="53"/>
-      <c r="X29" s="53"/>
-      <c r="Y29" s="53"/>
-      <c r="Z29" s="53"/>
-      <c r="AA29" s="53"/>
-      <c r="AB29" s="53"/>
-      <c r="AC29" s="53"/>
-      <c r="AD29" s="53"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="51"/>
+      <c r="U29" s="51"/>
+      <c r="V29" s="51"/>
+      <c r="W29" s="51"/>
+      <c r="X29" s="51"/>
+      <c r="Y29" s="51"/>
+      <c r="Z29" s="51"/>
+      <c r="AA29" s="51"/>
+      <c r="AB29" s="51"/>
+      <c r="AC29" s="51"/>
+      <c r="AD29" s="51"/>
     </row>
     <row r="30" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23"/>
@@ -7493,24 +7559,24 @@
       <c r="F30" s="17"/>
       <c r="I30" s="17"/>
       <c r="L30" s="17"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="53"/>
-      <c r="S30" s="53"/>
-      <c r="T30" s="53"/>
-      <c r="U30" s="53"/>
-      <c r="V30" s="53"/>
-      <c r="W30" s="53"/>
-      <c r="X30" s="53"/>
-      <c r="Y30" s="53"/>
-      <c r="Z30" s="53"/>
-      <c r="AA30" s="53"/>
-      <c r="AB30" s="53"/>
-      <c r="AC30" s="53"/>
-      <c r="AD30" s="53"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="51"/>
+      <c r="S30" s="51"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="51"/>
+      <c r="V30" s="51"/>
+      <c r="W30" s="51"/>
+      <c r="X30" s="51"/>
+      <c r="Y30" s="51"/>
+      <c r="Z30" s="51"/>
+      <c r="AA30" s="51"/>
+      <c r="AB30" s="51"/>
+      <c r="AC30" s="51"/>
+      <c r="AD30" s="51"/>
     </row>
     <row r="31" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="23"/>
@@ -7518,24 +7584,24 @@
       <c r="F31" s="17"/>
       <c r="I31" s="17"/>
       <c r="L31" s="17"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="53"/>
-      <c r="T31" s="53"/>
-      <c r="U31" s="53"/>
-      <c r="V31" s="53"/>
-      <c r="W31" s="53"/>
-      <c r="X31" s="53"/>
-      <c r="Y31" s="53"/>
-      <c r="Z31" s="53"/>
-      <c r="AA31" s="53"/>
-      <c r="AB31" s="53"/>
-      <c r="AC31" s="53"/>
-      <c r="AD31" s="53"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="51"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="51"/>
+      <c r="V31" s="51"/>
+      <c r="W31" s="51"/>
+      <c r="X31" s="51"/>
+      <c r="Y31" s="51"/>
+      <c r="Z31" s="51"/>
+      <c r="AA31" s="51"/>
+      <c r="AB31" s="51"/>
+      <c r="AC31" s="51"/>
+      <c r="AD31" s="51"/>
     </row>
     <row r="32" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="23"/>
@@ -7543,24 +7609,24 @@
       <c r="F32" s="17"/>
       <c r="I32" s="17"/>
       <c r="L32" s="17"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="53"/>
-      <c r="S32" s="53"/>
-      <c r="T32" s="53"/>
-      <c r="U32" s="53"/>
-      <c r="V32" s="53"/>
-      <c r="W32" s="53"/>
-      <c r="X32" s="53"/>
-      <c r="Y32" s="53"/>
-      <c r="Z32" s="53"/>
-      <c r="AA32" s="53"/>
-      <c r="AB32" s="53"/>
-      <c r="AC32" s="53"/>
-      <c r="AD32" s="53"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="51"/>
+      <c r="S32" s="51"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="51"/>
+      <c r="V32" s="51"/>
+      <c r="W32" s="51"/>
+      <c r="X32" s="51"/>
+      <c r="Y32" s="51"/>
+      <c r="Z32" s="51"/>
+      <c r="AA32" s="51"/>
+      <c r="AB32" s="51"/>
+      <c r="AC32" s="51"/>
+      <c r="AD32" s="51"/>
     </row>
     <row r="33" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="23"/>
@@ -7568,24 +7634,24 @@
       <c r="F33" s="17"/>
       <c r="I33" s="17"/>
       <c r="L33" s="17"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="53"/>
-      <c r="T33" s="53"/>
-      <c r="U33" s="53"/>
-      <c r="V33" s="53"/>
-      <c r="W33" s="53"/>
-      <c r="X33" s="53"/>
-      <c r="Y33" s="53"/>
-      <c r="Z33" s="53"/>
-      <c r="AA33" s="53"/>
-      <c r="AB33" s="53"/>
-      <c r="AC33" s="53"/>
-      <c r="AD33" s="53"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="51"/>
+      <c r="S33" s="51"/>
+      <c r="T33" s="51"/>
+      <c r="U33" s="51"/>
+      <c r="V33" s="51"/>
+      <c r="W33" s="51"/>
+      <c r="X33" s="51"/>
+      <c r="Y33" s="51"/>
+      <c r="Z33" s="51"/>
+      <c r="AA33" s="51"/>
+      <c r="AB33" s="51"/>
+      <c r="AC33" s="51"/>
+      <c r="AD33" s="51"/>
     </row>
     <row r="34" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="23"/>
@@ -7593,24 +7659,24 @@
       <c r="F34" s="17"/>
       <c r="I34" s="17"/>
       <c r="L34" s="17"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="53"/>
-      <c r="S34" s="53"/>
-      <c r="T34" s="53"/>
-      <c r="U34" s="53"/>
-      <c r="V34" s="53"/>
-      <c r="W34" s="53"/>
-      <c r="X34" s="53"/>
-      <c r="Y34" s="53"/>
-      <c r="Z34" s="53"/>
-      <c r="AA34" s="53"/>
-      <c r="AB34" s="53"/>
-      <c r="AC34" s="53"/>
-      <c r="AD34" s="53"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="51"/>
+      <c r="R34" s="51"/>
+      <c r="S34" s="51"/>
+      <c r="T34" s="51"/>
+      <c r="U34" s="51"/>
+      <c r="V34" s="51"/>
+      <c r="W34" s="51"/>
+      <c r="X34" s="51"/>
+      <c r="Y34" s="51"/>
+      <c r="Z34" s="51"/>
+      <c r="AA34" s="51"/>
+      <c r="AB34" s="51"/>
+      <c r="AC34" s="51"/>
+      <c r="AD34" s="51"/>
     </row>
     <row r="35" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="23"/>
@@ -7618,24 +7684,24 @@
       <c r="F35" s="17"/>
       <c r="I35" s="17"/>
       <c r="L35" s="17"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="53"/>
-      <c r="R35" s="53"/>
-      <c r="S35" s="53"/>
-      <c r="T35" s="53"/>
-      <c r="U35" s="53"/>
-      <c r="V35" s="53"/>
-      <c r="W35" s="53"/>
-      <c r="X35" s="53"/>
-      <c r="Y35" s="53"/>
-      <c r="Z35" s="53"/>
-      <c r="AA35" s="53"/>
-      <c r="AB35" s="53"/>
-      <c r="AC35" s="53"/>
-      <c r="AD35" s="53"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="51"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="51"/>
+      <c r="T35" s="51"/>
+      <c r="U35" s="51"/>
+      <c r="V35" s="51"/>
+      <c r="W35" s="51"/>
+      <c r="X35" s="51"/>
+      <c r="Y35" s="51"/>
+      <c r="Z35" s="51"/>
+      <c r="AA35" s="51"/>
+      <c r="AB35" s="51"/>
+      <c r="AC35" s="51"/>
+      <c r="AD35" s="51"/>
     </row>
     <row r="36" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="23"/>
@@ -7643,24 +7709,24 @@
       <c r="F36" s="17"/>
       <c r="I36" s="17"/>
       <c r="L36" s="17"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="53"/>
-      <c r="S36" s="53"/>
-      <c r="T36" s="53"/>
-      <c r="U36" s="53"/>
-      <c r="V36" s="53"/>
-      <c r="W36" s="53"/>
-      <c r="X36" s="53"/>
-      <c r="Y36" s="53"/>
-      <c r="Z36" s="53"/>
-      <c r="AA36" s="53"/>
-      <c r="AB36" s="53"/>
-      <c r="AC36" s="53"/>
-      <c r="AD36" s="53"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="51"/>
+      <c r="R36" s="51"/>
+      <c r="S36" s="51"/>
+      <c r="T36" s="51"/>
+      <c r="U36" s="51"/>
+      <c r="V36" s="51"/>
+      <c r="W36" s="51"/>
+      <c r="X36" s="51"/>
+      <c r="Y36" s="51"/>
+      <c r="Z36" s="51"/>
+      <c r="AA36" s="51"/>
+      <c r="AB36" s="51"/>
+      <c r="AC36" s="51"/>
+      <c r="AD36" s="51"/>
     </row>
     <row r="37" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="23"/>
@@ -7668,24 +7734,24 @@
       <c r="F37" s="17"/>
       <c r="I37" s="17"/>
       <c r="L37" s="17"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="53"/>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="53"/>
-      <c r="S37" s="53"/>
-      <c r="T37" s="53"/>
-      <c r="U37" s="53"/>
-      <c r="V37" s="53"/>
-      <c r="W37" s="53"/>
-      <c r="X37" s="53"/>
-      <c r="Y37" s="53"/>
-      <c r="Z37" s="53"/>
-      <c r="AA37" s="53"/>
-      <c r="AB37" s="53"/>
-      <c r="AC37" s="53"/>
-      <c r="AD37" s="53"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="51"/>
+      <c r="P37" s="51"/>
+      <c r="Q37" s="51"/>
+      <c r="R37" s="51"/>
+      <c r="S37" s="51"/>
+      <c r="T37" s="51"/>
+      <c r="U37" s="51"/>
+      <c r="V37" s="51"/>
+      <c r="W37" s="51"/>
+      <c r="X37" s="51"/>
+      <c r="Y37" s="51"/>
+      <c r="Z37" s="51"/>
+      <c r="AA37" s="51"/>
+      <c r="AB37" s="51"/>
+      <c r="AC37" s="51"/>
+      <c r="AD37" s="51"/>
     </row>
     <row r="38" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="23"/>
@@ -7693,24 +7759,24 @@
       <c r="F38" s="17"/>
       <c r="I38" s="17"/>
       <c r="L38" s="17"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="53"/>
-      <c r="R38" s="53"/>
-      <c r="S38" s="53"/>
-      <c r="T38" s="53"/>
-      <c r="U38" s="53"/>
-      <c r="V38" s="53"/>
-      <c r="W38" s="53"/>
-      <c r="X38" s="53"/>
-      <c r="Y38" s="53"/>
-      <c r="Z38" s="53"/>
-      <c r="AA38" s="53"/>
-      <c r="AB38" s="53"/>
-      <c r="AC38" s="53"/>
-      <c r="AD38" s="53"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="51"/>
+      <c r="Q38" s="51"/>
+      <c r="R38" s="51"/>
+      <c r="S38" s="51"/>
+      <c r="T38" s="51"/>
+      <c r="U38" s="51"/>
+      <c r="V38" s="51"/>
+      <c r="W38" s="51"/>
+      <c r="X38" s="51"/>
+      <c r="Y38" s="51"/>
+      <c r="Z38" s="51"/>
+      <c r="AA38" s="51"/>
+      <c r="AB38" s="51"/>
+      <c r="AC38" s="51"/>
+      <c r="AD38" s="51"/>
     </row>
     <row r="39" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="23"/>
@@ -7718,24 +7784,24 @@
       <c r="F39" s="17"/>
       <c r="I39" s="17"/>
       <c r="L39" s="17"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="53"/>
-      <c r="O39" s="53"/>
-      <c r="P39" s="53"/>
-      <c r="Q39" s="53"/>
-      <c r="R39" s="53"/>
-      <c r="S39" s="53"/>
-      <c r="T39" s="53"/>
-      <c r="U39" s="53"/>
-      <c r="V39" s="53"/>
-      <c r="W39" s="53"/>
-      <c r="X39" s="53"/>
-      <c r="Y39" s="53"/>
-      <c r="Z39" s="53"/>
-      <c r="AA39" s="53"/>
-      <c r="AB39" s="53"/>
-      <c r="AC39" s="53"/>
-      <c r="AD39" s="53"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="51"/>
+      <c r="Q39" s="51"/>
+      <c r="R39" s="51"/>
+      <c r="S39" s="51"/>
+      <c r="T39" s="51"/>
+      <c r="U39" s="51"/>
+      <c r="V39" s="51"/>
+      <c r="W39" s="51"/>
+      <c r="X39" s="51"/>
+      <c r="Y39" s="51"/>
+      <c r="Z39" s="51"/>
+      <c r="AA39" s="51"/>
+      <c r="AB39" s="51"/>
+      <c r="AC39" s="51"/>
+      <c r="AD39" s="51"/>
     </row>
     <row r="40" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="23"/>
@@ -7743,24 +7809,24 @@
       <c r="F40" s="17"/>
       <c r="I40" s="17"/>
       <c r="L40" s="17"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="53"/>
-      <c r="Q40" s="53"/>
-      <c r="R40" s="53"/>
-      <c r="S40" s="53"/>
-      <c r="T40" s="53"/>
-      <c r="U40" s="53"/>
-      <c r="V40" s="53"/>
-      <c r="W40" s="53"/>
-      <c r="X40" s="53"/>
-      <c r="Y40" s="53"/>
-      <c r="Z40" s="53"/>
-      <c r="AA40" s="53"/>
-      <c r="AB40" s="53"/>
-      <c r="AC40" s="53"/>
-      <c r="AD40" s="53"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="51"/>
+      <c r="P40" s="51"/>
+      <c r="Q40" s="51"/>
+      <c r="R40" s="51"/>
+      <c r="S40" s="51"/>
+      <c r="T40" s="51"/>
+      <c r="U40" s="51"/>
+      <c r="V40" s="51"/>
+      <c r="W40" s="51"/>
+      <c r="X40" s="51"/>
+      <c r="Y40" s="51"/>
+      <c r="Z40" s="51"/>
+      <c r="AA40" s="51"/>
+      <c r="AB40" s="51"/>
+      <c r="AC40" s="51"/>
+      <c r="AD40" s="51"/>
     </row>
     <row r="41" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="23"/>
@@ -7768,24 +7834,24 @@
       <c r="F41" s="17"/>
       <c r="I41" s="17"/>
       <c r="L41" s="17"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="53"/>
-      <c r="P41" s="53"/>
-      <c r="Q41" s="53"/>
-      <c r="R41" s="53"/>
-      <c r="S41" s="53"/>
-      <c r="T41" s="53"/>
-      <c r="U41" s="53"/>
-      <c r="V41" s="53"/>
-      <c r="W41" s="53"/>
-      <c r="X41" s="53"/>
-      <c r="Y41" s="53"/>
-      <c r="Z41" s="53"/>
-      <c r="AA41" s="53"/>
-      <c r="AB41" s="53"/>
-      <c r="AC41" s="53"/>
-      <c r="AD41" s="53"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="51"/>
+      <c r="P41" s="51"/>
+      <c r="Q41" s="51"/>
+      <c r="R41" s="51"/>
+      <c r="S41" s="51"/>
+      <c r="T41" s="51"/>
+      <c r="U41" s="51"/>
+      <c r="V41" s="51"/>
+      <c r="W41" s="51"/>
+      <c r="X41" s="51"/>
+      <c r="Y41" s="51"/>
+      <c r="Z41" s="51"/>
+      <c r="AA41" s="51"/>
+      <c r="AB41" s="51"/>
+      <c r="AC41" s="51"/>
+      <c r="AD41" s="51"/>
     </row>
     <row r="42" spans="2:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="23"/>
@@ -7793,644 +7859,644 @@
       <c r="F42" s="17"/>
       <c r="I42" s="17"/>
       <c r="L42" s="17"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="53"/>
-      <c r="O42" s="53"/>
-      <c r="P42" s="53"/>
-      <c r="Q42" s="53"/>
-      <c r="R42" s="53"/>
-      <c r="S42" s="53"/>
-      <c r="T42" s="53"/>
-      <c r="U42" s="53"/>
-      <c r="V42" s="53"/>
-      <c r="W42" s="53"/>
-      <c r="X42" s="53"/>
-      <c r="Y42" s="53"/>
-      <c r="Z42" s="53"/>
-      <c r="AA42" s="53"/>
-      <c r="AB42" s="53"/>
-      <c r="AC42" s="53"/>
-      <c r="AD42" s="53"/>
+      <c r="M42" s="51"/>
+      <c r="N42" s="51"/>
+      <c r="O42" s="51"/>
+      <c r="P42" s="51"/>
+      <c r="Q42" s="51"/>
+      <c r="R42" s="51"/>
+      <c r="S42" s="51"/>
+      <c r="T42" s="51"/>
+      <c r="U42" s="51"/>
+      <c r="V42" s="51"/>
+      <c r="W42" s="51"/>
+      <c r="X42" s="51"/>
+      <c r="Y42" s="51"/>
+      <c r="Z42" s="51"/>
+      <c r="AA42" s="51"/>
+      <c r="AB42" s="51"/>
+      <c r="AC42" s="51"/>
+      <c r="AD42" s="51"/>
     </row>
     <row r="43" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="55"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="56"/>
-      <c r="J43" s="56"/>
-      <c r="K43" s="56"/>
-      <c r="L43" s="57"/>
-      <c r="M43" s="53"/>
-      <c r="N43" s="53"/>
-      <c r="O43" s="53"/>
-      <c r="P43" s="53"/>
-      <c r="Q43" s="53"/>
-      <c r="R43" s="53"/>
-      <c r="S43" s="53"/>
-      <c r="T43" s="53"/>
-      <c r="U43" s="53"/>
-      <c r="V43" s="53"/>
-      <c r="W43" s="53"/>
-      <c r="X43" s="53"/>
-      <c r="Y43" s="53"/>
-      <c r="Z43" s="53"/>
-      <c r="AA43" s="53"/>
-      <c r="AB43" s="53"/>
-      <c r="AC43" s="53"/>
-      <c r="AD43" s="53"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="55"/>
+      <c r="M43" s="51"/>
+      <c r="N43" s="51"/>
+      <c r="O43" s="51"/>
+      <c r="P43" s="51"/>
+      <c r="Q43" s="51"/>
+      <c r="R43" s="51"/>
+      <c r="S43" s="51"/>
+      <c r="T43" s="51"/>
+      <c r="U43" s="51"/>
+      <c r="V43" s="51"/>
+      <c r="W43" s="51"/>
+      <c r="X43" s="51"/>
+      <c r="Y43" s="51"/>
+      <c r="Z43" s="51"/>
+      <c r="AA43" s="51"/>
+      <c r="AB43" s="51"/>
+      <c r="AC43" s="51"/>
+      <c r="AD43" s="51"/>
     </row>
     <row r="44" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="58"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="59"/>
-      <c r="J44" s="59"/>
-      <c r="K44" s="59"/>
-      <c r="L44" s="60"/>
-      <c r="M44" s="53"/>
-      <c r="N44" s="53"/>
-      <c r="O44" s="53"/>
-      <c r="P44" s="53"/>
-      <c r="Q44" s="53"/>
-      <c r="R44" s="53"/>
-      <c r="S44" s="53"/>
-      <c r="T44" s="53"/>
-      <c r="U44" s="53"/>
-      <c r="V44" s="53"/>
-      <c r="W44" s="53"/>
-      <c r="X44" s="53"/>
-      <c r="Y44" s="53"/>
-      <c r="Z44" s="53"/>
-      <c r="AA44" s="53"/>
-      <c r="AB44" s="53"/>
-      <c r="AC44" s="53"/>
-      <c r="AD44" s="53"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="57"/>
+      <c r="L44" s="58"/>
+      <c r="M44" s="51"/>
+      <c r="N44" s="51"/>
+      <c r="O44" s="51"/>
+      <c r="P44" s="51"/>
+      <c r="Q44" s="51"/>
+      <c r="R44" s="51"/>
+      <c r="S44" s="51"/>
+      <c r="T44" s="51"/>
+      <c r="U44" s="51"/>
+      <c r="V44" s="51"/>
+      <c r="W44" s="51"/>
+      <c r="X44" s="51"/>
+      <c r="Y44" s="51"/>
+      <c r="Z44" s="51"/>
+      <c r="AA44" s="51"/>
+      <c r="AB44" s="51"/>
+      <c r="AC44" s="51"/>
+      <c r="AD44" s="51"/>
     </row>
     <row r="45" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="58"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="59"/>
-      <c r="L45" s="60"/>
-      <c r="M45" s="53"/>
-      <c r="N45" s="53"/>
-      <c r="O45" s="53"/>
-      <c r="P45" s="53"/>
-      <c r="Q45" s="53"/>
-      <c r="R45" s="53"/>
-      <c r="S45" s="53"/>
-      <c r="T45" s="53"/>
-      <c r="U45" s="53"/>
-      <c r="V45" s="53"/>
-      <c r="W45" s="53"/>
-      <c r="X45" s="53"/>
-      <c r="Y45" s="53"/>
-      <c r="Z45" s="53"/>
-      <c r="AA45" s="53"/>
-      <c r="AB45" s="53"/>
-      <c r="AC45" s="53"/>
-      <c r="AD45" s="53"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="57"/>
+      <c r="L45" s="58"/>
+      <c r="M45" s="51"/>
+      <c r="N45" s="51"/>
+      <c r="O45" s="51"/>
+      <c r="P45" s="51"/>
+      <c r="Q45" s="51"/>
+      <c r="R45" s="51"/>
+      <c r="S45" s="51"/>
+      <c r="T45" s="51"/>
+      <c r="U45" s="51"/>
+      <c r="V45" s="51"/>
+      <c r="W45" s="51"/>
+      <c r="X45" s="51"/>
+      <c r="Y45" s="51"/>
+      <c r="Z45" s="51"/>
+      <c r="AA45" s="51"/>
+      <c r="AB45" s="51"/>
+      <c r="AC45" s="51"/>
+      <c r="AD45" s="51"/>
     </row>
     <row r="46" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="58"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="59"/>
-      <c r="J46" s="59"/>
-      <c r="K46" s="59"/>
-      <c r="L46" s="60"/>
-      <c r="M46" s="53"/>
-      <c r="N46" s="53"/>
-      <c r="O46" s="53"/>
-      <c r="P46" s="53"/>
-      <c r="Q46" s="53"/>
-      <c r="R46" s="53"/>
-      <c r="S46" s="53"/>
-      <c r="T46" s="53"/>
-      <c r="U46" s="53"/>
-      <c r="V46" s="53"/>
-      <c r="W46" s="53"/>
-      <c r="X46" s="53"/>
-      <c r="Y46" s="53"/>
-      <c r="Z46" s="53"/>
-      <c r="AA46" s="53"/>
-      <c r="AB46" s="53"/>
-      <c r="AC46" s="53"/>
-      <c r="AD46" s="53"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="57"/>
+      <c r="K46" s="57"/>
+      <c r="L46" s="58"/>
+      <c r="M46" s="51"/>
+      <c r="N46" s="51"/>
+      <c r="O46" s="51"/>
+      <c r="P46" s="51"/>
+      <c r="Q46" s="51"/>
+      <c r="R46" s="51"/>
+      <c r="S46" s="51"/>
+      <c r="T46" s="51"/>
+      <c r="U46" s="51"/>
+      <c r="V46" s="51"/>
+      <c r="W46" s="51"/>
+      <c r="X46" s="51"/>
+      <c r="Y46" s="51"/>
+      <c r="Z46" s="51"/>
+      <c r="AA46" s="51"/>
+      <c r="AB46" s="51"/>
+      <c r="AC46" s="51"/>
+      <c r="AD46" s="51"/>
     </row>
     <row r="47" spans="2:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="61"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="62"/>
-      <c r="J47" s="62"/>
-      <c r="K47" s="62"/>
-      <c r="L47" s="63"/>
-      <c r="M47" s="53"/>
-      <c r="N47" s="53"/>
-      <c r="O47" s="53"/>
-      <c r="P47" s="53"/>
-      <c r="Q47" s="53"/>
-      <c r="R47" s="53"/>
-      <c r="S47" s="53"/>
-      <c r="T47" s="53"/>
-      <c r="U47" s="53"/>
-      <c r="V47" s="53"/>
-      <c r="W47" s="53"/>
-      <c r="X47" s="53"/>
-      <c r="Y47" s="53"/>
-      <c r="Z47" s="53"/>
-      <c r="AA47" s="53"/>
-      <c r="AB47" s="53"/>
-      <c r="AC47" s="53"/>
-      <c r="AD47" s="53"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="60"/>
+      <c r="K47" s="60"/>
+      <c r="L47" s="61"/>
+      <c r="M47" s="51"/>
+      <c r="N47" s="51"/>
+      <c r="O47" s="51"/>
+      <c r="P47" s="51"/>
+      <c r="Q47" s="51"/>
+      <c r="R47" s="51"/>
+      <c r="S47" s="51"/>
+      <c r="T47" s="51"/>
+      <c r="U47" s="51"/>
+      <c r="V47" s="51"/>
+      <c r="W47" s="51"/>
+      <c r="X47" s="51"/>
+      <c r="Y47" s="51"/>
+      <c r="Z47" s="51"/>
+      <c r="AA47" s="51"/>
+      <c r="AB47" s="51"/>
+      <c r="AC47" s="51"/>
+      <c r="AD47" s="51"/>
     </row>
     <row r="48" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="53"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="53"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="53"/>
-      <c r="K48" s="53"/>
-      <c r="L48" s="53"/>
-      <c r="M48" s="53"/>
-      <c r="N48" s="53"/>
-      <c r="O48" s="53"/>
-      <c r="P48" s="53"/>
-      <c r="Q48" s="53"/>
-      <c r="R48" s="53"/>
-      <c r="S48" s="53"/>
-      <c r="T48" s="53"/>
-      <c r="U48" s="53"/>
-      <c r="V48" s="53"/>
-      <c r="W48" s="53"/>
-      <c r="X48" s="53"/>
-      <c r="Y48" s="53"/>
-      <c r="Z48" s="53"/>
-      <c r="AA48" s="53"/>
-      <c r="AB48" s="53"/>
-      <c r="AC48" s="53"/>
-      <c r="AD48" s="53"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="51"/>
+      <c r="L48" s="51"/>
+      <c r="M48" s="51"/>
+      <c r="N48" s="51"/>
+      <c r="O48" s="51"/>
+      <c r="P48" s="51"/>
+      <c r="Q48" s="51"/>
+      <c r="R48" s="51"/>
+      <c r="S48" s="51"/>
+      <c r="T48" s="51"/>
+      <c r="U48" s="51"/>
+      <c r="V48" s="51"/>
+      <c r="W48" s="51"/>
+      <c r="X48" s="51"/>
+      <c r="Y48" s="51"/>
+      <c r="Z48" s="51"/>
+      <c r="AA48" s="51"/>
+      <c r="AB48" s="51"/>
+      <c r="AC48" s="51"/>
+      <c r="AD48" s="51"/>
     </row>
     <row r="49" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="53"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="53"/>
-      <c r="K49" s="53"/>
-      <c r="L49" s="53"/>
-      <c r="M49" s="53"/>
-      <c r="N49" s="53"/>
-      <c r="O49" s="53"/>
-      <c r="P49" s="53"/>
-      <c r="Q49" s="53"/>
-      <c r="R49" s="53"/>
-      <c r="S49" s="53"/>
-      <c r="T49" s="53"/>
-      <c r="U49" s="53"/>
-      <c r="V49" s="53"/>
-      <c r="W49" s="53"/>
-      <c r="X49" s="53"/>
-      <c r="Y49" s="53"/>
-      <c r="Z49" s="53"/>
-      <c r="AA49" s="53"/>
-      <c r="AB49" s="53"/>
-      <c r="AC49" s="53"/>
-      <c r="AD49" s="53"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="51"/>
+      <c r="K49" s="51"/>
+      <c r="L49" s="51"/>
+      <c r="M49" s="51"/>
+      <c r="N49" s="51"/>
+      <c r="O49" s="51"/>
+      <c r="P49" s="51"/>
+      <c r="Q49" s="51"/>
+      <c r="R49" s="51"/>
+      <c r="S49" s="51"/>
+      <c r="T49" s="51"/>
+      <c r="U49" s="51"/>
+      <c r="V49" s="51"/>
+      <c r="W49" s="51"/>
+      <c r="X49" s="51"/>
+      <c r="Y49" s="51"/>
+      <c r="Z49" s="51"/>
+      <c r="AA49" s="51"/>
+      <c r="AB49" s="51"/>
+      <c r="AC49" s="51"/>
+      <c r="AD49" s="51"/>
     </row>
     <row r="50" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="53"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="53"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="53"/>
-      <c r="K50" s="53"/>
-      <c r="L50" s="53"/>
-      <c r="M50" s="53"/>
-      <c r="N50" s="53"/>
-      <c r="O50" s="53"/>
-      <c r="P50" s="53"/>
-      <c r="Q50" s="53"/>
-      <c r="R50" s="53"/>
-      <c r="S50" s="53"/>
-      <c r="T50" s="53"/>
-      <c r="U50" s="53"/>
-      <c r="V50" s="53"/>
-      <c r="W50" s="53"/>
-      <c r="X50" s="53"/>
-      <c r="Y50" s="53"/>
-      <c r="Z50" s="53"/>
-      <c r="AA50" s="53"/>
-      <c r="AB50" s="53"/>
-      <c r="AC50" s="53"/>
-      <c r="AD50" s="53"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="51"/>
+      <c r="L50" s="51"/>
+      <c r="M50" s="51"/>
+      <c r="N50" s="51"/>
+      <c r="O50" s="51"/>
+      <c r="P50" s="51"/>
+      <c r="Q50" s="51"/>
+      <c r="R50" s="51"/>
+      <c r="S50" s="51"/>
+      <c r="T50" s="51"/>
+      <c r="U50" s="51"/>
+      <c r="V50" s="51"/>
+      <c r="W50" s="51"/>
+      <c r="X50" s="51"/>
+      <c r="Y50" s="51"/>
+      <c r="Z50" s="51"/>
+      <c r="AA50" s="51"/>
+      <c r="AB50" s="51"/>
+      <c r="AC50" s="51"/>
+      <c r="AD50" s="51"/>
     </row>
     <row r="51" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="53"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="53"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="53"/>
-      <c r="K51" s="53"/>
-      <c r="L51" s="53"/>
-      <c r="M51" s="53"/>
-      <c r="N51" s="53"/>
-      <c r="O51" s="53"/>
-      <c r="P51" s="53"/>
-      <c r="Q51" s="53"/>
-      <c r="R51" s="53"/>
-      <c r="S51" s="53"/>
-      <c r="T51" s="53"/>
-      <c r="U51" s="53"/>
-      <c r="V51" s="53"/>
-      <c r="W51" s="53"/>
-      <c r="X51" s="53"/>
-      <c r="Y51" s="53"/>
-      <c r="Z51" s="53"/>
-      <c r="AA51" s="53"/>
-      <c r="AB51" s="53"/>
-      <c r="AC51" s="53"/>
-      <c r="AD51" s="53"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="51"/>
+      <c r="K51" s="51"/>
+      <c r="L51" s="51"/>
+      <c r="M51" s="51"/>
+      <c r="N51" s="51"/>
+      <c r="O51" s="51"/>
+      <c r="P51" s="51"/>
+      <c r="Q51" s="51"/>
+      <c r="R51" s="51"/>
+      <c r="S51" s="51"/>
+      <c r="T51" s="51"/>
+      <c r="U51" s="51"/>
+      <c r="V51" s="51"/>
+      <c r="W51" s="51"/>
+      <c r="X51" s="51"/>
+      <c r="Y51" s="51"/>
+      <c r="Z51" s="51"/>
+      <c r="AA51" s="51"/>
+      <c r="AB51" s="51"/>
+      <c r="AC51" s="51"/>
+      <c r="AD51" s="51"/>
     </row>
     <row r="52" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="53"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="53"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="53"/>
-      <c r="M52" s="53"/>
-      <c r="N52" s="53"/>
-      <c r="O52" s="53"/>
-      <c r="P52" s="53"/>
-      <c r="Q52" s="53"/>
-      <c r="R52" s="53"/>
-      <c r="S52" s="53"/>
-      <c r="T52" s="53"/>
-      <c r="U52" s="53"/>
-      <c r="V52" s="53"/>
-      <c r="W52" s="53"/>
-      <c r="X52" s="53"/>
-      <c r="Y52" s="53"/>
-      <c r="Z52" s="53"/>
-      <c r="AA52" s="53"/>
-      <c r="AB52" s="53"/>
-      <c r="AC52" s="53"/>
-      <c r="AD52" s="53"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="51"/>
+      <c r="K52" s="51"/>
+      <c r="L52" s="51"/>
+      <c r="M52" s="51"/>
+      <c r="N52" s="51"/>
+      <c r="O52" s="51"/>
+      <c r="P52" s="51"/>
+      <c r="Q52" s="51"/>
+      <c r="R52" s="51"/>
+      <c r="S52" s="51"/>
+      <c r="T52" s="51"/>
+      <c r="U52" s="51"/>
+      <c r="V52" s="51"/>
+      <c r="W52" s="51"/>
+      <c r="X52" s="51"/>
+      <c r="Y52" s="51"/>
+      <c r="Z52" s="51"/>
+      <c r="AA52" s="51"/>
+      <c r="AB52" s="51"/>
+      <c r="AC52" s="51"/>
+      <c r="AD52" s="51"/>
     </row>
     <row r="53" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="53"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="53"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="53"/>
-      <c r="K53" s="53"/>
-      <c r="L53" s="53"/>
-      <c r="M53" s="53"/>
-      <c r="N53" s="53"/>
-      <c r="O53" s="53"/>
-      <c r="P53" s="53"/>
-      <c r="Q53" s="53"/>
-      <c r="R53" s="53"/>
-      <c r="S53" s="53"/>
-      <c r="T53" s="53"/>
-      <c r="U53" s="53"/>
-      <c r="V53" s="53"/>
-      <c r="W53" s="53"/>
-      <c r="X53" s="53"/>
-      <c r="Y53" s="53"/>
-      <c r="Z53" s="53"/>
-      <c r="AA53" s="53"/>
-      <c r="AB53" s="53"/>
-      <c r="AC53" s="53"/>
-      <c r="AD53" s="53"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="51"/>
+      <c r="K53" s="51"/>
+      <c r="L53" s="51"/>
+      <c r="M53" s="51"/>
+      <c r="N53" s="51"/>
+      <c r="O53" s="51"/>
+      <c r="P53" s="51"/>
+      <c r="Q53" s="51"/>
+      <c r="R53" s="51"/>
+      <c r="S53" s="51"/>
+      <c r="T53" s="51"/>
+      <c r="U53" s="51"/>
+      <c r="V53" s="51"/>
+      <c r="W53" s="51"/>
+      <c r="X53" s="51"/>
+      <c r="Y53" s="51"/>
+      <c r="Z53" s="51"/>
+      <c r="AA53" s="51"/>
+      <c r="AB53" s="51"/>
+      <c r="AC53" s="51"/>
+      <c r="AD53" s="51"/>
     </row>
     <row r="54" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="53"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="53"/>
-      <c r="K54" s="53"/>
-      <c r="L54" s="53"/>
-      <c r="M54" s="53"/>
-      <c r="N54" s="53"/>
-      <c r="O54" s="53"/>
-      <c r="P54" s="53"/>
-      <c r="Q54" s="53"/>
-      <c r="R54" s="53"/>
-      <c r="S54" s="53"/>
-      <c r="T54" s="53"/>
-      <c r="U54" s="53"/>
-      <c r="V54" s="53"/>
-      <c r="W54" s="53"/>
-      <c r="X54" s="53"/>
-      <c r="Y54" s="53"/>
-      <c r="Z54" s="53"/>
-      <c r="AA54" s="53"/>
-      <c r="AB54" s="53"/>
-      <c r="AC54" s="53"/>
-      <c r="AD54" s="53"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="51"/>
+      <c r="K54" s="51"/>
+      <c r="L54" s="51"/>
+      <c r="M54" s="51"/>
+      <c r="N54" s="51"/>
+      <c r="O54" s="51"/>
+      <c r="P54" s="51"/>
+      <c r="Q54" s="51"/>
+      <c r="R54" s="51"/>
+      <c r="S54" s="51"/>
+      <c r="T54" s="51"/>
+      <c r="U54" s="51"/>
+      <c r="V54" s="51"/>
+      <c r="W54" s="51"/>
+      <c r="X54" s="51"/>
+      <c r="Y54" s="51"/>
+      <c r="Z54" s="51"/>
+      <c r="AA54" s="51"/>
+      <c r="AB54" s="51"/>
+      <c r="AC54" s="51"/>
+      <c r="AD54" s="51"/>
     </row>
     <row r="55" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="53"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="53"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="53"/>
-      <c r="K55" s="53"/>
-      <c r="L55" s="53"/>
-      <c r="M55" s="53"/>
-      <c r="N55" s="53"/>
-      <c r="O55" s="53"/>
-      <c r="P55" s="53"/>
-      <c r="Q55" s="53"/>
-      <c r="R55" s="53"/>
-      <c r="S55" s="53"/>
-      <c r="T55" s="53"/>
-      <c r="U55" s="53"/>
-      <c r="V55" s="53"/>
-      <c r="W55" s="53"/>
-      <c r="X55" s="53"/>
-      <c r="Y55" s="53"/>
-      <c r="Z55" s="53"/>
-      <c r="AA55" s="53"/>
-      <c r="AB55" s="53"/>
-      <c r="AC55" s="53"/>
-      <c r="AD55" s="53"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="51"/>
+      <c r="K55" s="51"/>
+      <c r="L55" s="51"/>
+      <c r="M55" s="51"/>
+      <c r="N55" s="51"/>
+      <c r="O55" s="51"/>
+      <c r="P55" s="51"/>
+      <c r="Q55" s="51"/>
+      <c r="R55" s="51"/>
+      <c r="S55" s="51"/>
+      <c r="T55" s="51"/>
+      <c r="U55" s="51"/>
+      <c r="V55" s="51"/>
+      <c r="W55" s="51"/>
+      <c r="X55" s="51"/>
+      <c r="Y55" s="51"/>
+      <c r="Z55" s="51"/>
+      <c r="AA55" s="51"/>
+      <c r="AB55" s="51"/>
+      <c r="AC55" s="51"/>
+      <c r="AD55" s="51"/>
     </row>
     <row r="56" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="53"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="53"/>
-      <c r="K56" s="53"/>
-      <c r="L56" s="53"/>
-      <c r="M56" s="53"/>
-      <c r="N56" s="53"/>
-      <c r="O56" s="53"/>
-      <c r="P56" s="53"/>
-      <c r="Q56" s="53"/>
-      <c r="R56" s="53"/>
-      <c r="S56" s="53"/>
-      <c r="T56" s="53"/>
-      <c r="U56" s="53"/>
-      <c r="V56" s="53"/>
-      <c r="W56" s="53"/>
-      <c r="X56" s="53"/>
-      <c r="Y56" s="53"/>
-      <c r="Z56" s="53"/>
-      <c r="AA56" s="53"/>
-      <c r="AB56" s="53"/>
-      <c r="AC56" s="53"/>
-      <c r="AD56" s="53"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
+      <c r="I56" s="51"/>
+      <c r="J56" s="51"/>
+      <c r="K56" s="51"/>
+      <c r="L56" s="51"/>
+      <c r="M56" s="51"/>
+      <c r="N56" s="51"/>
+      <c r="O56" s="51"/>
+      <c r="P56" s="51"/>
+      <c r="Q56" s="51"/>
+      <c r="R56" s="51"/>
+      <c r="S56" s="51"/>
+      <c r="T56" s="51"/>
+      <c r="U56" s="51"/>
+      <c r="V56" s="51"/>
+      <c r="W56" s="51"/>
+      <c r="X56" s="51"/>
+      <c r="Y56" s="51"/>
+      <c r="Z56" s="51"/>
+      <c r="AA56" s="51"/>
+      <c r="AB56" s="51"/>
+      <c r="AC56" s="51"/>
+      <c r="AD56" s="51"/>
     </row>
     <row r="57" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="53"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="53"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="53"/>
-      <c r="H57" s="53"/>
-      <c r="I57" s="53"/>
-      <c r="J57" s="53"/>
-      <c r="K57" s="53"/>
-      <c r="L57" s="53"/>
-      <c r="M57" s="53"/>
-      <c r="N57" s="53"/>
-      <c r="O57" s="53"/>
-      <c r="P57" s="53"/>
-      <c r="Q57" s="53"/>
-      <c r="R57" s="53"/>
-      <c r="S57" s="53"/>
-      <c r="T57" s="53"/>
-      <c r="U57" s="53"/>
-      <c r="V57" s="53"/>
-      <c r="W57" s="53"/>
-      <c r="X57" s="53"/>
-      <c r="Y57" s="53"/>
-      <c r="Z57" s="53"/>
-      <c r="AA57" s="53"/>
-      <c r="AB57" s="53"/>
-      <c r="AC57" s="53"/>
-      <c r="AD57" s="53"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="51"/>
+      <c r="K57" s="51"/>
+      <c r="L57" s="51"/>
+      <c r="M57" s="51"/>
+      <c r="N57" s="51"/>
+      <c r="O57" s="51"/>
+      <c r="P57" s="51"/>
+      <c r="Q57" s="51"/>
+      <c r="R57" s="51"/>
+      <c r="S57" s="51"/>
+      <c r="T57" s="51"/>
+      <c r="U57" s="51"/>
+      <c r="V57" s="51"/>
+      <c r="W57" s="51"/>
+      <c r="X57" s="51"/>
+      <c r="Y57" s="51"/>
+      <c r="Z57" s="51"/>
+      <c r="AA57" s="51"/>
+      <c r="AB57" s="51"/>
+      <c r="AC57" s="51"/>
+      <c r="AD57" s="51"/>
     </row>
     <row r="58" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="53"/>
-      <c r="C58" s="53"/>
-      <c r="D58" s="53"/>
-      <c r="E58" s="53"/>
-      <c r="F58" s="53"/>
-      <c r="G58" s="53"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="53"/>
-      <c r="K58" s="53"/>
-      <c r="L58" s="53"/>
-      <c r="M58" s="53"/>
-      <c r="N58" s="53"/>
-      <c r="O58" s="53"/>
-      <c r="P58" s="53"/>
-      <c r="Q58" s="53"/>
-      <c r="R58" s="53"/>
-      <c r="S58" s="53"/>
-      <c r="T58" s="53"/>
-      <c r="U58" s="53"/>
-      <c r="V58" s="53"/>
-      <c r="W58" s="53"/>
-      <c r="X58" s="53"/>
-      <c r="Y58" s="53"/>
-      <c r="Z58" s="53"/>
-      <c r="AA58" s="53"/>
-      <c r="AB58" s="53"/>
-      <c r="AC58" s="53"/>
-      <c r="AD58" s="53"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="51"/>
+      <c r="K58" s="51"/>
+      <c r="L58" s="51"/>
+      <c r="M58" s="51"/>
+      <c r="N58" s="51"/>
+      <c r="O58" s="51"/>
+      <c r="P58" s="51"/>
+      <c r="Q58" s="51"/>
+      <c r="R58" s="51"/>
+      <c r="S58" s="51"/>
+      <c r="T58" s="51"/>
+      <c r="U58" s="51"/>
+      <c r="V58" s="51"/>
+      <c r="W58" s="51"/>
+      <c r="X58" s="51"/>
+      <c r="Y58" s="51"/>
+      <c r="Z58" s="51"/>
+      <c r="AA58" s="51"/>
+      <c r="AB58" s="51"/>
+      <c r="AC58" s="51"/>
+      <c r="AD58" s="51"/>
     </row>
     <row r="59" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="53"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="53"/>
-      <c r="E59" s="53"/>
-      <c r="F59" s="53"/>
-      <c r="G59" s="53"/>
-      <c r="H59" s="53"/>
-      <c r="I59" s="53"/>
-      <c r="J59" s="53"/>
-      <c r="K59" s="53"/>
-      <c r="L59" s="53"/>
-      <c r="M59" s="53"/>
-      <c r="N59" s="53"/>
-      <c r="O59" s="53"/>
-      <c r="P59" s="53"/>
-      <c r="Q59" s="53"/>
-      <c r="R59" s="53"/>
-      <c r="S59" s="53"/>
-      <c r="T59" s="53"/>
-      <c r="U59" s="53"/>
-      <c r="V59" s="53"/>
-      <c r="W59" s="53"/>
-      <c r="X59" s="53"/>
-      <c r="Y59" s="53"/>
-      <c r="Z59" s="53"/>
-      <c r="AA59" s="53"/>
-      <c r="AB59" s="53"/>
-      <c r="AC59" s="53"/>
-      <c r="AD59" s="53"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="51"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="51"/>
+      <c r="K59" s="51"/>
+      <c r="L59" s="51"/>
+      <c r="M59" s="51"/>
+      <c r="N59" s="51"/>
+      <c r="O59" s="51"/>
+      <c r="P59" s="51"/>
+      <c r="Q59" s="51"/>
+      <c r="R59" s="51"/>
+      <c r="S59" s="51"/>
+      <c r="T59" s="51"/>
+      <c r="U59" s="51"/>
+      <c r="V59" s="51"/>
+      <c r="W59" s="51"/>
+      <c r="X59" s="51"/>
+      <c r="Y59" s="51"/>
+      <c r="Z59" s="51"/>
+      <c r="AA59" s="51"/>
+      <c r="AB59" s="51"/>
+      <c r="AC59" s="51"/>
+      <c r="AD59" s="51"/>
     </row>
     <row r="60" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="53"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="53"/>
-      <c r="E60" s="53"/>
-      <c r="F60" s="53"/>
-      <c r="G60" s="53"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="53"/>
-      <c r="J60" s="53"/>
-      <c r="K60" s="53"/>
-      <c r="L60" s="53"/>
-      <c r="M60" s="53"/>
-      <c r="N60" s="53"/>
-      <c r="O60" s="53"/>
-      <c r="P60" s="53"/>
-      <c r="Q60" s="53"/>
-      <c r="R60" s="53"/>
-      <c r="S60" s="53"/>
-      <c r="T60" s="53"/>
-      <c r="U60" s="53"/>
-      <c r="V60" s="53"/>
-      <c r="W60" s="53"/>
-      <c r="X60" s="53"/>
-      <c r="Y60" s="53"/>
-      <c r="Z60" s="53"/>
-      <c r="AA60" s="53"/>
-      <c r="AB60" s="53"/>
-      <c r="AC60" s="53"/>
-      <c r="AD60" s="53"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="51"/>
+      <c r="H60" s="51"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="51"/>
+      <c r="K60" s="51"/>
+      <c r="L60" s="51"/>
+      <c r="M60" s="51"/>
+      <c r="N60" s="51"/>
+      <c r="O60" s="51"/>
+      <c r="P60" s="51"/>
+      <c r="Q60" s="51"/>
+      <c r="R60" s="51"/>
+      <c r="S60" s="51"/>
+      <c r="T60" s="51"/>
+      <c r="U60" s="51"/>
+      <c r="V60" s="51"/>
+      <c r="W60" s="51"/>
+      <c r="X60" s="51"/>
+      <c r="Y60" s="51"/>
+      <c r="Z60" s="51"/>
+      <c r="AA60" s="51"/>
+      <c r="AB60" s="51"/>
+      <c r="AC60" s="51"/>
+      <c r="AD60" s="51"/>
     </row>
     <row r="61" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="53"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="53"/>
-      <c r="E61" s="53"/>
-      <c r="F61" s="53"/>
-      <c r="G61" s="53"/>
-      <c r="H61" s="53"/>
-      <c r="I61" s="53"/>
-      <c r="J61" s="53"/>
-      <c r="K61" s="53"/>
-      <c r="L61" s="53"/>
-      <c r="M61" s="53"/>
-      <c r="N61" s="53"/>
-      <c r="O61" s="53"/>
-      <c r="P61" s="53"/>
-      <c r="Q61" s="53"/>
-      <c r="R61" s="53"/>
-      <c r="S61" s="53"/>
-      <c r="T61" s="53"/>
-      <c r="U61" s="53"/>
-      <c r="V61" s="53"/>
-      <c r="W61" s="53"/>
-      <c r="X61" s="53"/>
-      <c r="Y61" s="53"/>
-      <c r="Z61" s="53"/>
-      <c r="AA61" s="53"/>
-      <c r="AB61" s="53"/>
-      <c r="AC61" s="53"/>
-      <c r="AD61" s="53"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="51"/>
+      <c r="H61" s="51"/>
+      <c r="I61" s="51"/>
+      <c r="J61" s="51"/>
+      <c r="K61" s="51"/>
+      <c r="L61" s="51"/>
+      <c r="M61" s="51"/>
+      <c r="N61" s="51"/>
+      <c r="O61" s="51"/>
+      <c r="P61" s="51"/>
+      <c r="Q61" s="51"/>
+      <c r="R61" s="51"/>
+      <c r="S61" s="51"/>
+      <c r="T61" s="51"/>
+      <c r="U61" s="51"/>
+      <c r="V61" s="51"/>
+      <c r="W61" s="51"/>
+      <c r="X61" s="51"/>
+      <c r="Y61" s="51"/>
+      <c r="Z61" s="51"/>
+      <c r="AA61" s="51"/>
+      <c r="AB61" s="51"/>
+      <c r="AC61" s="51"/>
+      <c r="AD61" s="51"/>
     </row>
     <row r="62" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="53"/>
-      <c r="C62" s="53"/>
-      <c r="D62" s="53"/>
-      <c r="E62" s="53"/>
-      <c r="F62" s="53"/>
-      <c r="G62" s="53"/>
-      <c r="H62" s="53"/>
-      <c r="I62" s="53"/>
-      <c r="J62" s="53"/>
-      <c r="K62" s="53"/>
-      <c r="L62" s="53"/>
-      <c r="M62" s="53"/>
-      <c r="N62" s="53"/>
-      <c r="O62" s="53"/>
-      <c r="P62" s="53"/>
-      <c r="Q62" s="53"/>
-      <c r="R62" s="53"/>
-      <c r="S62" s="53"/>
-      <c r="T62" s="53"/>
-      <c r="U62" s="53"/>
-      <c r="V62" s="53"/>
-      <c r="W62" s="53"/>
-      <c r="X62" s="53"/>
-      <c r="Y62" s="53"/>
-      <c r="Z62" s="53"/>
-      <c r="AA62" s="53"/>
-      <c r="AB62" s="53"/>
-      <c r="AC62" s="53"/>
-      <c r="AD62" s="53"/>
+      <c r="B62" s="51"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="51"/>
+      <c r="H62" s="51"/>
+      <c r="I62" s="51"/>
+      <c r="J62" s="51"/>
+      <c r="K62" s="51"/>
+      <c r="L62" s="51"/>
+      <c r="M62" s="51"/>
+      <c r="N62" s="51"/>
+      <c r="O62" s="51"/>
+      <c r="P62" s="51"/>
+      <c r="Q62" s="51"/>
+      <c r="R62" s="51"/>
+      <c r="S62" s="51"/>
+      <c r="T62" s="51"/>
+      <c r="U62" s="51"/>
+      <c r="V62" s="51"/>
+      <c r="W62" s="51"/>
+      <c r="X62" s="51"/>
+      <c r="Y62" s="51"/>
+      <c r="Z62" s="51"/>
+      <c r="AA62" s="51"/>
+      <c r="AB62" s="51"/>
+      <c r="AC62" s="51"/>
+      <c r="AD62" s="51"/>
     </row>
     <row r="63" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9379,18 +9445,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B1:O1000"/>
+  <dimension ref="B1:O1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="68.88671875" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" customWidth="1"/>
     <col min="5" max="5" width="15.5546875" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="33.77734375" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" customWidth="1"/>
     <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="20.44140625" customWidth="1"/>
@@ -9556,16 +9624,20 @@
       <c r="L14" s="17"/>
       <c r="O14" s="17"/>
     </row>
-    <row r="15" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B15" s="23"/>
-      <c r="C15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="O15" s="17"/>
+    <row r="15" spans="2:15" s="64" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B15" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="O15" s="63"/>
     </row>
     <row r="16" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B16" s="23"/>
+      <c r="B16" s="65" t="s">
+        <v>115</v>
+      </c>
       <c r="C16" s="17"/>
       <c r="F16" s="17"/>
       <c r="I16" s="17"/>
@@ -9573,7 +9645,9 @@
       <c r="O16" s="17"/>
     </row>
     <row r="17" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B17" s="23"/>
+      <c r="B17" s="65" t="s">
+        <v>116</v>
+      </c>
       <c r="C17" s="17"/>
       <c r="F17" s="17"/>
       <c r="I17" s="17"/>
@@ -9581,7 +9655,9 @@
       <c r="O17" s="17"/>
     </row>
     <row r="18" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B18" s="23"/>
+      <c r="B18" s="65" t="s">
+        <v>117</v>
+      </c>
       <c r="C18" s="17"/>
       <c r="F18" s="17"/>
       <c r="I18" s="17"/>
@@ -9589,7 +9665,9 @@
       <c r="O18" s="17"/>
     </row>
     <row r="19" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B19" s="23"/>
+      <c r="B19" s="65" t="s">
+        <v>118</v>
+      </c>
       <c r="C19" s="17"/>
       <c r="F19" s="17"/>
       <c r="I19" s="17"/>
@@ -9604,25 +9682,48 @@
       <c r="L20" s="17"/>
       <c r="O20" s="17"/>
     </row>
-    <row r="21" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="23"/>
-      <c r="C21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="O21" s="17"/>
-    </row>
-    <row r="22" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="23"/>
-      <c r="C22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="O22" s="17"/>
+    <row r="21" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B21" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21">
+        <v>50</v>
+      </c>
+      <c r="F21" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="I21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="O21" s="27"/>
+    </row>
+    <row r="22" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B22" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22">
+        <v>100</v>
+      </c>
+      <c r="F22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="O22" s="27"/>
     </row>
     <row r="23" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="23"/>
-      <c r="C23" s="17"/>
+      <c r="B23" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23">
+        <v>100</v>
+      </c>
       <c r="F23" s="17"/>
       <c r="I23" s="17"/>
       <c r="L23" s="17"/>
@@ -9637,7 +9738,9 @@
       <c r="O24" s="17"/>
     </row>
     <row r="25" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="23"/>
+      <c r="B25" s="65" t="s">
+        <v>121</v>
+      </c>
       <c r="C25" s="17"/>
       <c r="F25" s="17"/>
       <c r="I25" s="17"/>
@@ -9645,7 +9748,9 @@
       <c r="O25" s="17"/>
     </row>
     <row r="26" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="23"/>
+      <c r="B26" s="65" t="s">
+        <v>122</v>
+      </c>
       <c r="C26" s="17"/>
       <c r="F26" s="17"/>
       <c r="I26" s="17"/>
@@ -9653,7 +9758,9 @@
       <c r="O26" s="17"/>
     </row>
     <row r="27" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="23"/>
+      <c r="B27" s="65" t="s">
+        <v>123</v>
+      </c>
       <c r="C27" s="17"/>
       <c r="F27" s="17"/>
       <c r="I27" s="17"/>
@@ -9661,7 +9768,9 @@
       <c r="O27" s="17"/>
     </row>
     <row r="28" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="23"/>
+      <c r="B28" s="65" t="s">
+        <v>120</v>
+      </c>
       <c r="C28" s="17"/>
       <c r="F28" s="17"/>
       <c r="I28" s="17"/>
@@ -9772,8 +9881,22 @@
       <c r="L41" s="17"/>
       <c r="O41" s="17"/>
     </row>
-    <row r="42" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="23"/>
+      <c r="C42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="O42" s="17"/>
+    </row>
+    <row r="43" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="23"/>
+      <c r="C43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="O43" s="17"/>
+    </row>
     <row r="44" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10731,6 +10854,8 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/DOCUMENTATION/DocumentDePlanification.xlsx
+++ b/DOCUMENTATION/DocumentDePlanification.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxxr\Documents\GitHub\C61-MaximeRabbat-AbigailFournier\DOCUMENTATION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fourn\OneDrive\Documents\GitHub\C61-MaximeRabbat-AbigailFournier\DOCUMENTATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E171D651-8161-4AF1-BB79-1235FC1E7D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0305CEE3-B362-4903-9F2D-41BBAB8EAC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planification" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="146">
   <si>
     <t>Planification globale</t>
   </si>
@@ -391,22 +391,82 @@
     <t>Level Node</t>
   </si>
   <si>
-    <t xml:space="preserve">Finir ennemies </t>
-  </si>
-  <si>
-    <t>Création de Interactive Object</t>
-  </si>
-  <si>
     <t>Création de Tool</t>
   </si>
   <si>
-    <t xml:space="preserve">Création de Obstacle </t>
-  </si>
-  <si>
     <t>Level Start</t>
   </si>
   <si>
     <t>niveaux ne sont pas tous existant encore</t>
+  </si>
+  <si>
+    <t>Level Switch Animation (fadeIn fadeOut)</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Création de Obstacle  (light spheres, boxes)</t>
+  </si>
+  <si>
+    <t>Dialogues</t>
+  </si>
+  <si>
+    <t>Inventory HUD</t>
+  </si>
+  <si>
+    <t>Eyes of Ra (HUD + battery + toggle on/off with R )</t>
+  </si>
+  <si>
+    <t>Glider</t>
+  </si>
+  <si>
+    <t>Light grenades</t>
+  </si>
+  <si>
+    <t>Chromas touch (infinite eyes of ra power)</t>
+  </si>
+  <si>
+    <t>Final puzzle (colored levers and buttons / pipes )</t>
+  </si>
+  <si>
+    <t>Final sun lighting up animation</t>
+  </si>
+  <si>
+    <t>Création de Interactive Object (levers, buttons, pressure plates, door)</t>
+  </si>
+  <si>
+    <t>Lit up zone indicator (for grenades or eyes of ra)</t>
+  </si>
+  <si>
+    <t>Finir ennemies (Animations and flying ennemy coroutine)</t>
+  </si>
+  <si>
+    <t>Collectibles (keys + battery / firefly pickup)</t>
+  </si>
+  <si>
+    <t>Bridges appear when level completed</t>
+  </si>
+  <si>
+    <t>3d background house that can be entered for final level / puzzle</t>
+  </si>
+  <si>
+    <t>HUD for level completion</t>
+  </si>
+  <si>
+    <t>Controls to restart levels or go back to level select / main menu</t>
+  </si>
+  <si>
+    <t>incorporate sound / music</t>
+  </si>
+  <si>
+    <t>Rocket boots / Light jump (light trail)</t>
+  </si>
+  <si>
+    <t>Max / Abi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max   </t>
   </si>
 </sst>
 </file>
@@ -414,7 +474,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;$&quot;_);[Red]\(#,##0.00\ &quot;$&quot;\)"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;$&quot;_);[Red]\(#,##0.00\ &quot;$&quot;\)"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -495,7 +555,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -613,6 +673,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,7 +874,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -839,7 +923,7 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -862,10 +946,20 @@
     <xf numFmtId="0" fontId="11" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1088,11 +1182,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1029"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.109375" customWidth="1"/>
     <col min="2" max="2" width="47.44140625" customWidth="1"/>
@@ -3037,7 +3131,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.88671875" customWidth="1"/>
     <col min="2" max="2" width="51.6640625" customWidth="1"/>
@@ -4528,7 +4622,7 @@
       <selection activeCell="B20" sqref="B20:B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.33203125" customWidth="1"/>
     <col min="2" max="2" width="42.21875" customWidth="1"/>
@@ -6320,11 +6414,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="95" workbookViewId="0">
+    <sheetView zoomScale="95" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.88671875" customWidth="1"/>
     <col min="2" max="2" width="50.77734375" customWidth="1"/>
@@ -9445,13 +9539,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B1:O1002"/>
+  <dimension ref="B1:O1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.6640625" customWidth="1"/>
     <col min="2" max="2" width="68.88671875" customWidth="1"/>
@@ -9545,7 +9639,9 @@
       </c>
     </row>
     <row r="5" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B5" s="23"/>
+      <c r="B5" s="70" t="s">
+        <v>123</v>
+      </c>
       <c r="C5" s="17"/>
       <c r="F5" s="17"/>
       <c r="I5" s="17"/>
@@ -9553,39 +9649,57 @@
       <c r="O5" s="17"/>
     </row>
     <row r="6" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B6" s="23"/>
-      <c r="C6" s="17"/>
+      <c r="B6" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>144</v>
+      </c>
       <c r="F6" s="17"/>
       <c r="I6" s="17"/>
       <c r="L6" s="17"/>
       <c r="O6" s="17"/>
     </row>
     <row r="7" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B7" s="23"/>
-      <c r="C7" s="17"/>
+      <c r="B7" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>144</v>
+      </c>
       <c r="F7" s="17"/>
       <c r="I7" s="17"/>
       <c r="L7" s="17"/>
       <c r="O7" s="17"/>
     </row>
     <row r="8" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B8" s="23"/>
-      <c r="C8" s="17"/>
+      <c r="B8" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>66</v>
+      </c>
       <c r="F8" s="17"/>
       <c r="I8" s="17"/>
       <c r="L8" s="17"/>
       <c r="O8" s="17"/>
     </row>
     <row r="9" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B9" s="23"/>
-      <c r="C9" s="17"/>
+      <c r="B9" s="67" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>66</v>
+      </c>
       <c r="F9" s="17"/>
       <c r="I9" s="17"/>
       <c r="L9" s="17"/>
       <c r="O9" s="17"/>
     </row>
     <row r="10" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B10" s="23"/>
+      <c r="B10" s="70" t="s">
+        <v>131</v>
+      </c>
       <c r="C10" s="17"/>
       <c r="F10" s="17"/>
       <c r="I10" s="17"/>
@@ -9593,7 +9707,9 @@
       <c r="O10" s="17"/>
     </row>
     <row r="11" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B11" s="23"/>
+      <c r="B11" s="70" t="s">
+        <v>132</v>
+      </c>
       <c r="C11" s="17"/>
       <c r="F11" s="17"/>
       <c r="I11" s="17"/>
@@ -9601,7 +9717,9 @@
       <c r="O11" s="17"/>
     </row>
     <row r="12" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B12" s="23"/>
+      <c r="B12" s="74" t="s">
+        <v>133</v>
+      </c>
       <c r="C12" s="17"/>
       <c r="F12" s="17"/>
       <c r="I12" s="17"/>
@@ -9609,54 +9727,64 @@
       <c r="O12" s="17"/>
     </row>
     <row r="13" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B13" s="23"/>
-      <c r="C13" s="17"/>
+      <c r="B13" s="75" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>145</v>
+      </c>
       <c r="F13" s="17"/>
       <c r="I13" s="17"/>
       <c r="L13" s="17"/>
       <c r="O13" s="17"/>
     </row>
     <row r="14" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B14" s="23"/>
-      <c r="C14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="O14" s="17"/>
-    </row>
-    <row r="15" spans="2:15" s="64" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="B15" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="O15" s="63"/>
+      <c r="B14" s="76" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="O14" s="27"/>
+    </row>
+    <row r="15" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B15" s="73" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="O15" s="27"/>
     </row>
     <row r="16" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B16" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="O16" s="17"/>
+      <c r="B16" s="75" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="O16" s="27"/>
     </row>
     <row r="17" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B17" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="O17" s="17"/>
+      <c r="B17" s="75" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="O17" s="27"/>
     </row>
     <row r="18" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B18" s="65" t="s">
-        <v>117</v>
+      <c r="B18" s="70" t="s">
+        <v>142</v>
       </c>
       <c r="C18" s="17"/>
       <c r="F18" s="17"/>
@@ -9664,18 +9792,20 @@
       <c r="L18" s="17"/>
       <c r="O18" s="17"/>
     </row>
-    <row r="19" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B19" s="65" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="O19" s="17"/>
+    <row r="19" spans="2:15" s="64" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B19" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="O19" s="63"/>
     </row>
     <row r="20" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B20" s="23"/>
+      <c r="B20" s="71" t="s">
+        <v>115</v>
+      </c>
       <c r="C20" s="17"/>
       <c r="F20" s="17"/>
       <c r="I20" s="17"/>
@@ -9683,53 +9813,36 @@
       <c r="O20" s="17"/>
     </row>
     <row r="21" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B21" s="67" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21">
-        <v>50</v>
-      </c>
-      <c r="F21" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="I21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="O21" s="27"/>
+      <c r="B21" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="O21" s="17"/>
     </row>
     <row r="22" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B22" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22">
-        <v>100</v>
-      </c>
-      <c r="F22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="O22" s="27"/>
-    </row>
-    <row r="23" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="65" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23">
-        <v>100</v>
-      </c>
+      <c r="B22" s="71" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="O22" s="17"/>
+    </row>
+    <row r="23" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B23" s="71" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="17"/>
       <c r="F23" s="17"/>
       <c r="I23" s="17"/>
       <c r="L23" s="17"/>
       <c r="O23" s="17"/>
     </row>
-    <row r="24" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B24" s="23"/>
       <c r="C24" s="17"/>
       <c r="F24" s="17"/>
@@ -9737,40 +9850,55 @@
       <c r="L24" s="17"/>
       <c r="O24" s="17"/>
     </row>
-    <row r="25" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="65" t="s">
+    <row r="25" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B25" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="O25" s="17"/>
-    </row>
-    <row r="26" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="65" t="s">
+      <c r="C25" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25">
+        <v>50</v>
+      </c>
+      <c r="F25" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="O26" s="17"/>
+      <c r="I25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="O25" s="27"/>
+    </row>
+    <row r="26" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B26" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26">
+        <v>100</v>
+      </c>
+      <c r="F26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="O26" s="27"/>
     </row>
     <row r="27" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="C27" s="17"/>
+      <c r="B27" s="78" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27">
+        <v>100</v>
+      </c>
       <c r="F27" s="17"/>
       <c r="I27" s="17"/>
       <c r="L27" s="17"/>
       <c r="O27" s="17"/>
     </row>
     <row r="28" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="65" t="s">
-        <v>120</v>
-      </c>
+      <c r="B28" s="23"/>
       <c r="C28" s="17"/>
       <c r="F28" s="17"/>
       <c r="I28" s="17"/>
@@ -9778,15 +9906,21 @@
       <c r="O28" s="17"/>
     </row>
     <row r="29" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="23"/>
-      <c r="C29" s="17"/>
+      <c r="B29" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="65" t="s">
+        <v>144</v>
+      </c>
       <c r="F29" s="17"/>
       <c r="I29" s="17"/>
       <c r="L29" s="17"/>
       <c r="O29" s="17"/>
     </row>
     <row r="30" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="23"/>
+      <c r="B30" s="71" t="s">
+        <v>120</v>
+      </c>
       <c r="C30" s="17"/>
       <c r="F30" s="17"/>
       <c r="I30" s="17"/>
@@ -9794,48 +9928,68 @@
       <c r="O30" s="17"/>
     </row>
     <row r="31" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="23"/>
-      <c r="C31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="O31" s="17"/>
+      <c r="B31" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="O31" s="27"/>
     </row>
     <row r="32" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="23"/>
-      <c r="C32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="O32" s="17"/>
+      <c r="B32" s="72" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="O32" s="27"/>
     </row>
     <row r="33" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="23"/>
-      <c r="C33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="O33" s="17"/>
+      <c r="B33" s="72" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="O33" s="27"/>
     </row>
     <row r="34" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="23"/>
-      <c r="C34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="O34" s="17"/>
+      <c r="B34" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="O34" s="27"/>
     </row>
     <row r="35" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="23"/>
-      <c r="C35" s="17"/>
+      <c r="B35" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" s="65" t="s">
+        <v>56</v>
+      </c>
       <c r="F35" s="17"/>
       <c r="I35" s="17"/>
       <c r="L35" s="17"/>
       <c r="O35" s="17"/>
     </row>
     <row r="36" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="23"/>
-      <c r="C36" s="17"/>
+      <c r="B36" s="69" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="65" t="s">
+        <v>56</v>
+      </c>
       <c r="F36" s="17"/>
       <c r="I36" s="17"/>
       <c r="L36" s="17"/>
@@ -9897,27 +10051,83 @@
       <c r="L43" s="17"/>
       <c r="O43" s="17"/>
     </row>
-    <row r="44" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="23"/>
+      <c r="C44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="O44" s="17"/>
+    </row>
+    <row r="45" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="23"/>
+      <c r="C45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="O45" s="17"/>
+    </row>
+    <row r="46" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="23"/>
+      <c r="C46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="O46" s="17"/>
+    </row>
+    <row r="47" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="23"/>
+      <c r="C47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="O47" s="17"/>
+    </row>
+    <row r="48" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="23"/>
+      <c r="C48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="O48" s="17"/>
+    </row>
+    <row r="49" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="23"/>
+      <c r="C49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="O49" s="17"/>
+    </row>
+    <row r="50" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="23"/>
+      <c r="C50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="O50" s="17"/>
+    </row>
+    <row r="51" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="23"/>
+      <c r="C51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="O51" s="17"/>
+    </row>
+    <row r="52" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10856,6 +11066,14 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/DOCUMENTATION/DocumentDePlanification.xlsx
+++ b/DOCUMENTATION/DocumentDePlanification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fourn\OneDrive\Documents\GitHub\C61-MaximeRabbat-AbigailFournier\DOCUMENTATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0305CEE3-B362-4903-9F2D-41BBAB8EAC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165E23B5-FAD8-4E2B-9CF9-897E53FF67A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="148">
   <si>
     <t>Planification globale</t>
   </si>
@@ -467,6 +467,12 @@
   </si>
   <si>
     <t xml:space="preserve">Max   </t>
+  </si>
+  <si>
+    <t>designing level 1 to 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abi / Max </t>
   </si>
 </sst>
 </file>
@@ -9539,10 +9545,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B1:O1010"/>
+  <dimension ref="B1:O1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9783,38 +9789,40 @@
       <c r="O17" s="27"/>
     </row>
     <row r="18" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B18" s="70" t="s">
+      <c r="B18" s="75" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="O18" s="27"/>
+    </row>
+    <row r="19" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B19" s="70" t="s">
         <v>142</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="O18" s="17"/>
-    </row>
-    <row r="19" spans="2:15" s="64" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="B19" s="62" t="s">
+      <c r="C19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="O19" s="17"/>
+    </row>
+    <row r="20" spans="2:15" s="64" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B20" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="O19" s="63"/>
-    </row>
-    <row r="20" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B20" s="71" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="O20" s="17"/>
+      <c r="C20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="O20" s="63"/>
     </row>
     <row r="21" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B21" s="71" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C21" s="17"/>
       <c r="F21" s="17"/>
@@ -9824,7 +9832,7 @@
     </row>
     <row r="22" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B22" s="71" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C22" s="17"/>
       <c r="F22" s="17"/>
@@ -9834,7 +9842,7 @@
     </row>
     <row r="23" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B23" s="71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C23" s="17"/>
       <c r="F23" s="17"/>
@@ -9843,7 +9851,9 @@
       <c r="O23" s="17"/>
     </row>
     <row r="24" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B24" s="23"/>
+      <c r="B24" s="71" t="s">
+        <v>118</v>
+      </c>
       <c r="C24" s="17"/>
       <c r="F24" s="17"/>
       <c r="I24" s="17"/>
@@ -9851,99 +9861,97 @@
       <c r="O24" s="17"/>
     </row>
     <row r="25" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B25" s="77" t="s">
-        <v>121</v>
-      </c>
-      <c r="C25" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25">
-        <v>50</v>
-      </c>
-      <c r="F25" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="I25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="O25" s="27"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="O25" s="17"/>
     </row>
     <row r="26" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B26" s="77" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="C26" s="66" t="s">
         <v>66</v>
       </c>
       <c r="E26">
-        <v>100</v>
-      </c>
-      <c r="F26" s="27"/>
+        <v>50</v>
+      </c>
+      <c r="F26" s="66" t="s">
+        <v>122</v>
+      </c>
       <c r="I26" s="27"/>
       <c r="L26" s="27"/>
       <c r="O26" s="27"/>
     </row>
-    <row r="27" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="78" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" s="65" t="s">
+    <row r="27" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B27" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="66" t="s">
         <v>66</v>
       </c>
       <c r="E27">
         <v>100</v>
       </c>
-      <c r="F27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="O27" s="17"/>
+      <c r="F27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="O27" s="27"/>
     </row>
     <row r="28" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="23"/>
-      <c r="C28" s="17"/>
+      <c r="B28" s="78" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28">
+        <v>100</v>
+      </c>
       <c r="F28" s="17"/>
       <c r="I28" s="17"/>
       <c r="L28" s="17"/>
       <c r="O28" s="17"/>
     </row>
     <row r="29" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="C29" s="65" t="s">
-        <v>144</v>
-      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="17"/>
       <c r="F29" s="17"/>
       <c r="I29" s="17"/>
       <c r="L29" s="17"/>
       <c r="O29" s="17"/>
     </row>
     <row r="30" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="71" t="s">
-        <v>120</v>
-      </c>
-      <c r="C30" s="17"/>
+      <c r="B30" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="65" t="s">
+        <v>144</v>
+      </c>
       <c r="F30" s="17"/>
       <c r="I30" s="17"/>
       <c r="L30" s="17"/>
       <c r="O30" s="17"/>
     </row>
     <row r="31" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="68" t="s">
+      <c r="B31" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="O31" s="17"/>
+    </row>
+    <row r="32" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="C31" s="66" t="s">
+      <c r="C32" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="F31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="O31" s="27"/>
-    </row>
-    <row r="32" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="72" t="s">
-        <v>143</v>
-      </c>
-      <c r="C32" s="27"/>
       <c r="F32" s="27"/>
       <c r="I32" s="27"/>
       <c r="L32" s="27"/>
@@ -9951,7 +9959,7 @@
     </row>
     <row r="33" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="72" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="C33" s="27"/>
       <c r="F33" s="27"/>
@@ -9960,32 +9968,30 @@
       <c r="O33" s="27"/>
     </row>
     <row r="34" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="C34" s="66" t="s">
-        <v>56</v>
-      </c>
+      <c r="B34" s="72" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="27"/>
       <c r="F34" s="27"/>
       <c r="I34" s="27"/>
       <c r="L34" s="27"/>
       <c r="O34" s="27"/>
     </row>
     <row r="35" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="C35" s="65" t="s">
+      <c r="B35" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="O35" s="17"/>
+      <c r="F35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="O35" s="27"/>
     </row>
     <row r="36" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="69" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C36" s="65" t="s">
         <v>56</v>
@@ -9996,8 +10002,12 @@
       <c r="O36" s="17"/>
     </row>
     <row r="37" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="23"/>
-      <c r="C37" s="17"/>
+      <c r="B37" s="69" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="65" t="s">
+        <v>56</v>
+      </c>
       <c r="F37" s="17"/>
       <c r="I37" s="17"/>
       <c r="L37" s="17"/>
@@ -10115,7 +10125,14 @@
       <c r="L51" s="17"/>
       <c r="O51" s="17"/>
     </row>
-    <row r="52" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="23"/>
+      <c r="C52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="O52" s="17"/>
+    </row>
     <row r="53" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11074,6 +11091,7 @@
     <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/DOCUMENTATION/DocumentDePlanification.xlsx
+++ b/DOCUMENTATION/DocumentDePlanification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxxr\Documents\GitHub\C61-MaximeRabbat-AbigailFournier\DOCUMENTATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE897EA-10C4-417B-9C0C-986A1C6A75A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BF4896-C7C6-4C19-82E5-85761023A375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planification" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="173">
   <si>
     <t>Planification globale</t>
   </si>
@@ -502,9 +502,6 @@
     <t>do we really nead em ?</t>
   </si>
   <si>
-    <t>easy to abes</t>
-  </si>
-  <si>
     <t>menu loads current level progress(untested)</t>
   </si>
   <si>
@@ -518,6 +515,39 @@
   </si>
   <si>
     <t xml:space="preserve">Background Parallax </t>
+  </si>
+  <si>
+    <t>battery fixed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was not added </t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>Fully Functional</t>
+  </si>
+  <si>
+    <t>we did not do them</t>
+  </si>
+  <si>
+    <t>easily implemented</t>
+  </si>
+  <si>
+    <t>added light ball</t>
+  </si>
+  <si>
+    <t>ran out of time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remembers most things </t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>progressive music</t>
   </si>
 </sst>
 </file>
@@ -925,7 +955,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1011,6 +1041,7 @@
     <xf numFmtId="0" fontId="4" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9592,8 +9623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:O1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="F20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9694,16 +9725,36 @@
         <v>123</v>
       </c>
       <c r="C5" s="17"/>
+      <c r="D5">
+        <v>0</v>
+      </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" s="17"/>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
       <c r="I5" s="17"/>
+      <c r="J5" s="79">
+        <v>0</v>
+      </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5" s="17"/>
-      <c r="O5" s="17"/>
+      <c r="M5" s="79">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="6" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="67" t="s">
@@ -9712,18 +9763,38 @@
       <c r="C6" s="65" t="s">
         <v>144</v>
       </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" s="17"/>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
       <c r="I6" s="17"/>
+      <c r="J6" s="79">
+        <v>1</v>
+      </c>
       <c r="K6">
         <v>20</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="O6" s="17"/>
+        <v>157</v>
+      </c>
+      <c r="M6" s="79">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>80</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="7" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B7" s="67" t="s">
@@ -9732,18 +9803,38 @@
       <c r="C7" s="65" t="s">
         <v>144</v>
       </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" s="17"/>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
       <c r="I7" s="17"/>
+      <c r="J7" s="79">
+        <v>2</v>
+      </c>
       <c r="K7">
         <v>70</v>
       </c>
       <c r="L7" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="O7" s="17"/>
+      <c r="M7" s="79">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>100</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="8" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" s="67" t="s">
@@ -9752,16 +9843,34 @@
       <c r="C8" s="65" t="s">
         <v>66</v>
       </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" s="17"/>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
       <c r="I8" s="17"/>
+      <c r="J8" s="79">
+        <v>2</v>
+      </c>
       <c r="K8">
         <v>80</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
+      </c>
+      <c r="M8" s="79">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>100</v>
       </c>
       <c r="O8" s="17"/>
     </row>
@@ -9772,15 +9881,33 @@
       <c r="C9" s="65" t="s">
         <v>66</v>
       </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" s="17"/>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
       <c r="I9" s="17"/>
+      <c r="J9" s="79">
+        <v>3</v>
+      </c>
       <c r="K9">
         <v>100</v>
       </c>
       <c r="L9" s="17"/>
+      <c r="M9" s="79">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>100</v>
+      </c>
       <c r="O9" s="17"/>
     </row>
     <row r="10" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
@@ -9788,52 +9915,110 @@
         <v>131</v>
       </c>
       <c r="C10" s="17"/>
+      <c r="D10">
+        <v>0</v>
+      </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" s="17"/>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
       <c r="I10" s="17"/>
+      <c r="J10" s="79">
+        <v>0</v>
+      </c>
       <c r="K10">
         <v>0</v>
       </c>
-      <c r="L10" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="O10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="79">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>100</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="11" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B11" s="70" t="s">
         <v>132</v>
       </c>
       <c r="C11" s="17"/>
+      <c r="D11">
+        <v>0</v>
+      </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" s="17"/>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
       <c r="I11" s="17"/>
+      <c r="J11" s="79">
+        <v>2</v>
+      </c>
       <c r="K11">
         <v>50</v>
       </c>
       <c r="L11" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="O11" s="17"/>
+      <c r="M11" s="79">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>100</v>
+      </c>
+      <c r="O11" s="17" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="12" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B12" s="74" t="s">
         <v>133</v>
       </c>
       <c r="C12" s="17"/>
+      <c r="D12">
+        <v>0</v>
+      </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" s="17"/>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
       <c r="I12" s="17"/>
+      <c r="J12" s="79">
+        <v>0</v>
+      </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12" s="17"/>
-      <c r="O12" s="17"/>
+      <c r="M12" s="79">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" s="17" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="13" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B13" s="75" t="s">
@@ -9842,15 +10027,33 @@
       <c r="C13" s="65" t="s">
         <v>145</v>
       </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" s="17"/>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
       <c r="I13" s="17"/>
+      <c r="J13" s="79">
+        <v>1</v>
+      </c>
       <c r="K13">
         <v>100</v>
       </c>
       <c r="L13" s="17"/>
+      <c r="M13" s="79">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>100</v>
+      </c>
       <c r="O13" s="17"/>
     </row>
     <row r="14" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
@@ -9858,32 +10061,72 @@
         <v>138</v>
       </c>
       <c r="C14" s="27"/>
+      <c r="D14">
+        <v>0</v>
+      </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" s="27"/>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
       <c r="I14" s="27"/>
+      <c r="J14" s="79">
+        <v>0</v>
+      </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14" s="27"/>
-      <c r="O14" s="27"/>
+      <c r="M14" s="79">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" s="27" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="15" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B15" s="73" t="s">
         <v>139</v>
       </c>
       <c r="C15" s="27"/>
+      <c r="D15">
+        <v>0</v>
+      </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" s="27"/>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
       <c r="I15" s="27"/>
+      <c r="J15" s="79">
+        <v>0</v>
+      </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15" s="27"/>
-      <c r="O15" s="27"/>
+      <c r="M15" s="79">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" s="27" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="16" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B16" s="75" t="s">
@@ -9892,15 +10135,33 @@
       <c r="C16" s="66" t="s">
         <v>66</v>
       </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" s="27"/>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
       <c r="I16" s="27"/>
+      <c r="J16" s="79">
+        <v>2</v>
+      </c>
       <c r="K16">
         <v>100</v>
       </c>
       <c r="L16" s="27"/>
+      <c r="M16" s="79">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>100</v>
+      </c>
       <c r="O16" s="27"/>
     </row>
     <row r="17" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
@@ -9910,15 +10171,33 @@
       <c r="C17" s="66" t="s">
         <v>56</v>
       </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" s="27"/>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
       <c r="I17" s="27"/>
+      <c r="J17" s="79">
+        <v>0</v>
+      </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17" s="27"/>
+      <c r="M17" s="79">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>100</v>
+      </c>
       <c r="O17" s="27"/>
     </row>
     <row r="18" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
@@ -9928,16 +10207,34 @@
       <c r="C18" s="66" t="s">
         <v>147</v>
       </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" s="27"/>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
       <c r="I18" s="27"/>
+      <c r="J18" s="79">
+        <v>1</v>
+      </c>
       <c r="K18">
         <v>50</v>
       </c>
       <c r="L18" s="27" t="s">
         <v>152</v>
+      </c>
+      <c r="M18" s="79">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>100</v>
       </c>
       <c r="O18" s="27"/>
     </row>
@@ -9946,16 +10243,36 @@
         <v>142</v>
       </c>
       <c r="C19" s="17"/>
+      <c r="D19">
+        <v>0</v>
+      </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19" s="17"/>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
       <c r="I19" s="17"/>
+      <c r="J19" s="79">
+        <v>0</v>
+      </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19" s="17"/>
-      <c r="O19" s="17"/>
+      <c r="M19" s="79">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>100</v>
+      </c>
+      <c r="O19" s="17" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="20" spans="2:15" s="64" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B20" s="62" t="s">
@@ -9972,15 +10289,33 @@
         <v>115</v>
       </c>
       <c r="C21" s="17"/>
+      <c r="D21">
+        <v>0</v>
+      </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21" s="17"/>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
       <c r="I21" s="17"/>
+      <c r="J21">
+        <v>0</v>
+      </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21" s="17"/>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <v>100</v>
+      </c>
       <c r="O21" s="17"/>
     </row>
     <row r="22" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
@@ -9988,15 +10323,33 @@
         <v>116</v>
       </c>
       <c r="C22" s="17"/>
+      <c r="D22">
+        <v>0</v>
+      </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22" s="17"/>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
       <c r="I22" s="17"/>
+      <c r="J22">
+        <v>0</v>
+      </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22" s="17"/>
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22">
+        <v>100</v>
+      </c>
       <c r="O22" s="17"/>
     </row>
     <row r="23" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
@@ -10004,15 +10357,33 @@
         <v>117</v>
       </c>
       <c r="C23" s="17"/>
+      <c r="D23">
+        <v>0</v>
+      </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23" s="17"/>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
       <c r="I23" s="17"/>
+      <c r="J23">
+        <v>0</v>
+      </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23" s="17"/>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <v>100</v>
+      </c>
       <c r="O23" s="17"/>
     </row>
     <row r="24" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
@@ -10020,20 +10391,41 @@
         <v>118</v>
       </c>
       <c r="C24" s="17"/>
+      <c r="D24">
+        <v>0</v>
+      </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24" s="17"/>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
       <c r="I24" s="17"/>
+      <c r="J24">
+        <v>0</v>
+      </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24" s="17"/>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>100</v>
+      </c>
       <c r="O24" s="17"/>
     </row>
     <row r="25" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B25" s="23"/>
       <c r="C25" s="17"/>
+      <c r="D25">
+        <v>0</v>
+      </c>
       <c r="E25">
         <v>0</v>
       </c>
@@ -10049,17 +10441,35 @@
       <c r="C26" s="66" t="s">
         <v>66</v>
       </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
       <c r="E26">
         <v>50</v>
       </c>
       <c r="F26" s="66" t="s">
         <v>122</v>
       </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>50</v>
+      </c>
       <c r="I26" s="27"/>
+      <c r="J26">
+        <v>4</v>
+      </c>
       <c r="K26">
         <v>100</v>
       </c>
       <c r="L26" s="27"/>
+      <c r="M26" s="79">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>100</v>
+      </c>
       <c r="O26" s="27"/>
     </row>
     <row r="27" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
@@ -10069,15 +10479,33 @@
       <c r="C27" s="66" t="s">
         <v>66</v>
       </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
       <c r="E27">
         <v>100</v>
       </c>
       <c r="F27" s="27"/>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>100</v>
+      </c>
       <c r="I27" s="27"/>
+      <c r="J27" s="79">
+        <v>0</v>
+      </c>
       <c r="K27">
         <v>100</v>
       </c>
       <c r="L27" s="27"/>
+      <c r="M27" s="79">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>100</v>
+      </c>
       <c r="O27" s="27"/>
     </row>
     <row r="28" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10087,26 +10515,38 @@
       <c r="C28" s="65" t="s">
         <v>66</v>
       </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
       <c r="E28">
         <v>100</v>
       </c>
       <c r="F28" s="17"/>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>100</v>
+      </c>
       <c r="I28" s="17"/>
+      <c r="J28" s="79">
+        <v>0</v>
+      </c>
       <c r="K28">
         <v>100</v>
       </c>
       <c r="L28" s="17"/>
+      <c r="M28" s="79">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>100</v>
+      </c>
       <c r="O28" s="17"/>
     </row>
     <row r="29" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23"/>
       <c r="C29" s="17"/>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
       <c r="F29" s="17"/>
       <c r="I29" s="17"/>
       <c r="L29" s="17"/>
@@ -10126,12 +10566,27 @@
         <v>0</v>
       </c>
       <c r="F30" s="17"/>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
       <c r="I30" s="17"/>
+      <c r="J30" s="79">
+        <v>2</v>
+      </c>
       <c r="K30">
         <v>90</v>
       </c>
       <c r="L30" s="17" t="s">
         <v>153</v>
+      </c>
+      <c r="M30" s="79">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>100</v>
       </c>
       <c r="O30" s="17"/>
     </row>
@@ -10147,11 +10602,26 @@
         <v>0</v>
       </c>
       <c r="F31" s="17"/>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
       <c r="I31" s="17"/>
+      <c r="J31" s="79">
+        <v>2</v>
+      </c>
       <c r="K31">
         <v>100</v>
       </c>
       <c r="L31" s="17"/>
+      <c r="M31" s="79">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>100</v>
+      </c>
       <c r="O31" s="17"/>
     </row>
     <row r="32" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10168,14 +10638,31 @@
         <v>0</v>
       </c>
       <c r="F32" s="27"/>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
       <c r="I32" s="27"/>
+      <c r="J32" s="79">
+        <v>4</v>
+      </c>
       <c r="K32">
         <v>90</v>
       </c>
       <c r="L32" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="O32" s="27"/>
+        <v>159</v>
+      </c>
+      <c r="M32" s="79">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>100</v>
+      </c>
+      <c r="O32" s="27" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="33" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="72" t="s">
@@ -10189,14 +10676,31 @@
         <v>0</v>
       </c>
       <c r="F33" s="27"/>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
       <c r="I33" s="27"/>
+      <c r="J33" s="79">
+        <v>3</v>
+      </c>
       <c r="K33">
         <v>80</v>
       </c>
       <c r="L33" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="O33" s="27"/>
+      <c r="M33" s="79">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>80</v>
+      </c>
+      <c r="O33" s="27" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="34" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="72" t="s">
@@ -10210,12 +10714,29 @@
         <v>0</v>
       </c>
       <c r="F34" s="27"/>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
       <c r="I34" s="27"/>
+      <c r="J34" s="79">
+        <v>0</v>
+      </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34" s="27"/>
-      <c r="O34" s="27"/>
+      <c r="M34" s="79">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>100</v>
+      </c>
+      <c r="O34" s="27" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="35" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="68" t="s">
@@ -10231,12 +10752,29 @@
         <v>0</v>
       </c>
       <c r="F35" s="27"/>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
       <c r="I35" s="27"/>
+      <c r="J35" s="79">
+        <v>2</v>
+      </c>
       <c r="K35">
         <v>80</v>
       </c>
       <c r="L35" s="27"/>
-      <c r="O35" s="27"/>
+      <c r="M35" s="79">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>100</v>
+      </c>
+      <c r="O35" s="27" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="36" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="69" t="s">
@@ -10252,14 +10790,31 @@
         <v>0</v>
       </c>
       <c r="F36" s="17"/>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
       <c r="I36" s="17"/>
+      <c r="J36" s="79">
+        <v>0</v>
+      </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="O36" s="17"/>
+      <c r="M36" s="79">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36" s="17" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="37" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="69" t="s">
@@ -10286,10 +10841,19 @@
       <c r="I37" s="17" t="s">
         <v>149</v>
       </c>
+      <c r="J37" s="79">
+        <v>1</v>
+      </c>
       <c r="K37">
         <v>100</v>
       </c>
       <c r="L37" s="17"/>
+      <c r="M37" s="79">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>100</v>
+      </c>
       <c r="O37" s="17"/>
     </row>
     <row r="38" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10297,40 +10861,133 @@
         <v>154</v>
       </c>
       <c r="C38" s="17"/>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
       <c r="F38" s="17"/>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
       <c r="I38" s="17"/>
+      <c r="J38" s="79">
+        <v>1</v>
+      </c>
       <c r="K38">
         <v>100</v>
       </c>
       <c r="L38" s="17"/>
+      <c r="M38" s="79">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>100</v>
+      </c>
       <c r="O38" s="17"/>
     </row>
     <row r="39" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C39" s="17"/>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
       <c r="F39" s="17"/>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
       <c r="I39" s="17"/>
+      <c r="J39" s="79">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
       <c r="L39" s="17"/>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>100</v>
+      </c>
       <c r="O39" s="17"/>
     </row>
     <row r="40" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C40" s="17"/>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
       <c r="F40" s="17"/>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
       <c r="I40" s="17"/>
+      <c r="J40" s="79">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
       <c r="L40" s="17"/>
+      <c r="M40">
+        <v>2</v>
+      </c>
+      <c r="N40">
+        <v>100</v>
+      </c>
       <c r="O40" s="17"/>
     </row>
     <row r="41" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="23"/>
       <c r="C41" s="17"/>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
       <c r="F41" s="17"/>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
       <c r="I41" s="17"/>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
       <c r="L41" s="17"/>
+      <c r="M41">
+        <v>2</v>
+      </c>
+      <c r="N41">
+        <v>100</v>
+      </c>
       <c r="O41" s="17"/>
     </row>
     <row r="42" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
